--- a/03_Outputs/Form_table.xlsx
+++ b/03_Outputs/Form_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LZ\MAX_PPT_Automation\02_Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LZ\MAX_PPT_Automation\03_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91FA8AF-B613-44AA-B2C5-7425814EBD79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBC1E2D-04BB-4FB5-92CF-2644F2843A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="145">
   <si>
     <t>Maylan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,14 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ShareTrend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,6 +507,34 @@
   </si>
   <si>
     <t>RegionPerformance2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value(Mn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume(Mn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value Growth%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume Growth%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMB(Mn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAB(Mn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,11 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J198"/>
+  <dimension ref="A1:K198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -880,13 +900,15 @@
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -915,10 +937,13 @@
         <v>76</v>
       </c>
       <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -935,13 +960,13 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -958,13 +983,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -981,13 +1006,13 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1004,13 +1029,13 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1027,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1050,13 +1075,13 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1073,13 +1098,13 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1096,13 +1121,13 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1119,13 +1144,13 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1142,13 +1167,13 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1165,13 +1190,13 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1188,13 +1213,13 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1211,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1234,13 +1259,13 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1257,13 +1282,13 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1280,13 +1305,13 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1303,13 +1328,13 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1326,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1349,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1372,13 +1397,13 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1400,11 +1425,11 @@
       <c r="G22" t="s">
         <v>2</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1426,11 +1451,11 @@
       <c r="G23" t="s">
         <v>2</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1447,16 +1472,16 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
         <v>2</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1473,16 +1498,16 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1499,16 +1524,16 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="G26" t="s">
         <v>2</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1530,11 +1555,11 @@
       <c r="G27" t="s">
         <v>2</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1556,11 +1581,11 @@
       <c r="G28" t="s">
         <v>2</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1577,16 +1602,16 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="G29" t="s">
         <v>2</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1603,16 +1628,16 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="G30" t="s">
         <v>2</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1629,16 +1654,16 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="G31" t="s">
         <v>2</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1660,11 +1685,11 @@
       <c r="G32" t="s">
         <v>2</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1686,11 +1711,11 @@
       <c r="G33" t="s">
         <v>2</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1707,16 +1732,16 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="G34" t="s">
         <v>2</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1733,16 +1758,16 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
         <v>2</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1759,16 +1784,16 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="G36" t="s">
         <v>2</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1790,11 +1815,11 @@
       <c r="G37" t="s">
         <v>2</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1816,11 +1841,11 @@
       <c r="G38" t="s">
         <v>2</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1837,16 +1862,16 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="G39" t="s">
         <v>2</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1863,16 +1888,16 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="G40" t="s">
         <v>2</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1889,16 +1914,16 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="G41" t="s">
         <v>2</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1915,16 +1940,16 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G42" t="s">
         <v>28</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1941,16 +1966,16 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G43" t="s">
         <v>28</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1967,16 +1992,16 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G44" t="s">
         <v>28</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1993,16 +2018,16 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G45" t="s">
         <v>28</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2019,16 +2044,16 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G46" t="s">
         <v>28</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2045,16 +2070,16 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G47" t="s">
         <v>28</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2071,16 +2096,16 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G48" t="s">
         <v>28</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2097,16 +2122,16 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G49" t="s">
         <v>28</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2123,16 +2148,16 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G50" t="s">
         <v>28</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2149,16 +2174,16 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G51" t="s">
         <v>28</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2175,16 +2200,16 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G52" t="s">
         <v>28</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2201,16 +2226,16 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G53" t="s">
         <v>28</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2232,11 +2257,11 @@
       <c r="G54" t="s">
         <v>28</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2258,11 +2283,11 @@
       <c r="G55" t="s">
         <v>28</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2284,11 +2309,11 @@
       <c r="G56" t="s">
         <v>28</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2310,11 +2335,11 @@
       <c r="G57" t="s">
         <v>28</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2336,11 +2361,11 @@
       <c r="G58" t="s">
         <v>28</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2362,11 +2387,11 @@
       <c r="G59" t="s">
         <v>28</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2388,11 +2413,11 @@
       <c r="G60" t="s">
         <v>28</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2414,11 +2439,11 @@
       <c r="G61" t="s">
         <v>28</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2440,11 +2465,11 @@
       <c r="G62" t="s">
         <v>28</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2466,16 +2491,16 @@
       <c r="G63" t="s">
         <v>28</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
         <v>61</v>
@@ -2492,16 +2517,16 @@
       <c r="G64" t="s">
         <v>28</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
         <v>61</v>
@@ -2518,16 +2543,16 @@
       <c r="G65" t="s">
         <v>28</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
         <v>61</v>
@@ -2544,16 +2569,16 @@
       <c r="G66" t="s">
         <v>28</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
         <v>61</v>
@@ -2570,16 +2595,16 @@
       <c r="G67" t="s">
         <v>28</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
         <v>61</v>
@@ -2596,16 +2621,16 @@
       <c r="G68" t="s">
         <v>28</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
         <v>62</v>
@@ -2622,16 +2647,16 @@
       <c r="G69" t="s">
         <v>28</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
         <v>62</v>
@@ -2648,16 +2673,16 @@
       <c r="G70" t="s">
         <v>28</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
         <v>62</v>
@@ -2674,16 +2699,16 @@
       <c r="G71" t="s">
         <v>28</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
         <v>62</v>
@@ -2700,16 +2725,16 @@
       <c r="G72" t="s">
         <v>28</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
         <v>62</v>
@@ -2726,11 +2751,11 @@
       <c r="G73" t="s">
         <v>28</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2752,11 +2777,11 @@
       <c r="I74" t="s">
         <v>78</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2778,11 +2803,11 @@
       <c r="I75" t="s">
         <v>78</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2804,11 +2829,11 @@
       <c r="I76" t="s">
         <v>78</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2830,11 +2855,11 @@
       <c r="I77" t="s">
         <v>78</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -2856,11 +2881,11 @@
       <c r="I78" t="s">
         <v>78</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2882,11 +2907,11 @@
       <c r="I79" t="s">
         <v>78</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2908,11 +2933,11 @@
       <c r="I80" t="s">
         <v>78</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2934,11 +2959,11 @@
       <c r="I81" t="s">
         <v>78</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -2960,11 +2985,11 @@
       <c r="I82" t="s">
         <v>78</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -2986,11 +3011,11 @@
       <c r="I83" t="s">
         <v>78</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3012,11 +3037,11 @@
       <c r="I84" t="s">
         <v>78</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3033,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
@@ -3041,11 +3066,11 @@
       <c r="H85" t="s">
         <v>78</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3087,7 @@
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G86" t="s">
         <v>34</v>
@@ -3070,11 +3095,11 @@
       <c r="H86" t="s">
         <v>78</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -3091,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G87" t="s">
         <v>34</v>
@@ -3099,11 +3124,11 @@
       <c r="H87" t="s">
         <v>78</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +3145,7 @@
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G88" t="s">
         <v>34</v>
@@ -3128,11 +3153,11 @@
       <c r="H88" t="s">
         <v>78</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3149,7 +3174,7 @@
         <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G89" t="s">
         <v>34</v>
@@ -3157,11 +3182,11 @@
       <c r="H89" t="s">
         <v>78</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -3178,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
@@ -3186,11 +3211,11 @@
       <c r="H90" t="s">
         <v>78</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3207,7 +3232,7 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -3215,11 +3240,11 @@
       <c r="H91" t="s">
         <v>78</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -3236,7 +3261,7 @@
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G92" t="s">
         <v>34</v>
@@ -3244,11 +3269,11 @@
       <c r="H92" t="s">
         <v>78</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -3265,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -3273,11 +3298,11 @@
       <c r="H93" t="s">
         <v>78</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -3294,7 +3319,7 @@
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -3302,11 +3327,11 @@
       <c r="H94" t="s">
         <v>78</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -3323,7 +3348,7 @@
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G95" t="s">
         <v>34</v>
@@ -3331,11 +3356,11 @@
       <c r="H95" t="s">
         <v>78</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -3352,7 +3377,7 @@
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -3360,11 +3385,11 @@
       <c r="H96" t="s">
         <v>78</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3381,7 +3406,7 @@
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G97" t="s">
         <v>34</v>
@@ -3389,11 +3414,11 @@
       <c r="H97" t="s">
         <v>78</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +3435,7 @@
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -3418,11 +3443,11 @@
       <c r="H98" t="s">
         <v>78</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3439,7 +3464,7 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G99" t="s">
         <v>34</v>
@@ -3447,11 +3472,11 @@
       <c r="H99" t="s">
         <v>78</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -3468,7 +3493,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -3476,11 +3501,11 @@
       <c r="H100" t="s">
         <v>78</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3497,7 +3522,7 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -3505,11 +3530,11 @@
       <c r="H101" t="s">
         <v>78</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -3526,7 +3551,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -3534,11 +3559,11 @@
       <c r="H102" t="s">
         <v>78</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -3555,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -3563,11 +3588,11 @@
       <c r="H103" t="s">
         <v>78</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -3584,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -3592,11 +3617,11 @@
       <c r="H104" t="s">
         <v>78</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -3613,7 +3638,7 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G105" t="s">
         <v>34</v>
@@ -3621,11 +3646,11 @@
       <c r="H105" t="s">
         <v>78</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -3642,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G106" t="s">
         <v>34</v>
@@ -3650,11 +3675,11 @@
       <c r="H106" t="s">
         <v>78</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3671,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -3679,11 +3704,11 @@
       <c r="H107" t="s">
         <v>78</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -3700,7 +3725,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -3708,11 +3733,11 @@
       <c r="H108" t="s">
         <v>78</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G109" t="s">
         <v>34</v>
@@ -3737,11 +3762,11 @@
       <c r="H109" t="s">
         <v>78</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3783,7 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
@@ -3766,11 +3791,11 @@
       <c r="H110" t="s">
         <v>78</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3787,7 +3812,7 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G111" t="s">
         <v>34</v>
@@ -3795,11 +3820,11 @@
       <c r="H111" t="s">
         <v>78</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -3816,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G112" t="s">
         <v>34</v>
@@ -3824,11 +3849,11 @@
       <c r="H112" t="s">
         <v>78</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -3850,11 +3875,11 @@
       <c r="G113" t="s">
         <v>34</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -3876,11 +3901,11 @@
       <c r="G114" t="s">
         <v>34</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -3902,11 +3927,11 @@
       <c r="G115" t="s">
         <v>34</v>
       </c>
-      <c r="J115" t="s">
+      <c r="K115" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -3928,11 +3953,11 @@
       <c r="G116" t="s">
         <v>34</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -3954,11 +3979,11 @@
       <c r="G117" t="s">
         <v>34</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K117" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -3980,11 +4005,11 @@
       <c r="G118" t="s">
         <v>34</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -4006,11 +4031,11 @@
       <c r="G119" t="s">
         <v>34</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -4032,11 +4057,11 @@
       <c r="G120" t="s">
         <v>34</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -4058,11 +4083,11 @@
       <c r="G121" t="s">
         <v>34</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -4084,11 +4109,11 @@
       <c r="G122" t="s">
         <v>34</v>
       </c>
-      <c r="J122" t="s">
+      <c r="K122" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -4110,11 +4135,11 @@
       <c r="G123" t="s">
         <v>34</v>
       </c>
-      <c r="J123" t="s">
+      <c r="K123" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -4136,11 +4161,11 @@
       <c r="G124" t="s">
         <v>34</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -4162,11 +4187,11 @@
       <c r="G125" t="s">
         <v>34</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -4188,11 +4213,11 @@
       <c r="G126" t="s">
         <v>34</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -4214,11 +4239,11 @@
       <c r="G127" t="s">
         <v>34</v>
       </c>
-      <c r="J127" t="s">
+      <c r="K127" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -4240,11 +4265,11 @@
       <c r="G128" t="s">
         <v>34</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -4266,11 +4291,11 @@
       <c r="G129" t="s">
         <v>34</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -4292,11 +4317,11 @@
       <c r="G130" t="s">
         <v>34</v>
       </c>
-      <c r="J130" t="s">
+      <c r="K130" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -4318,11 +4343,11 @@
       <c r="G131" t="s">
         <v>34</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -4344,11 +4369,11 @@
       <c r="G132" t="s">
         <v>34</v>
       </c>
-      <c r="J132" t="s">
+      <c r="K132" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -4370,11 +4395,11 @@
       <c r="G133" t="s">
         <v>34</v>
       </c>
-      <c r="J133" t="s">
+      <c r="K133" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -4396,16 +4421,16 @@
       <c r="G134" t="s">
         <v>34</v>
       </c>
-      <c r="J134" t="s">
+      <c r="K134" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -4422,16 +4447,16 @@
       <c r="G135" t="s">
         <v>34</v>
       </c>
-      <c r="J135" t="s">
+      <c r="K135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -4448,16 +4473,16 @@
       <c r="G136" t="s">
         <v>34</v>
       </c>
-      <c r="J136" t="s">
+      <c r="K136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -4474,16 +4499,16 @@
       <c r="G137" t="s">
         <v>34</v>
       </c>
-      <c r="J137" t="s">
+      <c r="K137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -4500,16 +4525,16 @@
       <c r="G138" t="s">
         <v>34</v>
       </c>
-      <c r="J138" t="s">
+      <c r="K138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -4526,16 +4551,16 @@
       <c r="G139" t="s">
         <v>34</v>
       </c>
-      <c r="J139" t="s">
+      <c r="K139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -4552,16 +4577,16 @@
       <c r="G140" t="s">
         <v>34</v>
       </c>
-      <c r="J140" t="s">
+      <c r="K140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -4578,16 +4603,16 @@
       <c r="G141" t="s">
         <v>34</v>
       </c>
-      <c r="J141" t="s">
+      <c r="K141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -4604,16 +4629,16 @@
       <c r="G142" t="s">
         <v>34</v>
       </c>
-      <c r="J142" t="s">
+      <c r="K142" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -4630,16 +4655,16 @@
       <c r="G143" t="s">
         <v>34</v>
       </c>
-      <c r="J143" t="s">
+      <c r="K143" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -4656,16 +4681,16 @@
       <c r="G144" t="s">
         <v>34</v>
       </c>
-      <c r="J144" t="s">
+      <c r="K144" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -4682,16 +4707,16 @@
       <c r="G145" t="s">
         <v>34</v>
       </c>
-      <c r="J145" t="s">
+      <c r="K145" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C146" t="s">
         <v>69</v>
@@ -4708,16 +4733,16 @@
       <c r="G146" t="s">
         <v>34</v>
       </c>
-      <c r="J146" t="s">
+      <c r="K146" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C147" t="s">
         <v>69</v>
@@ -4734,16 +4759,16 @@
       <c r="G147" t="s">
         <v>34</v>
       </c>
-      <c r="J147" t="s">
+      <c r="K147" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C148" t="s">
         <v>69</v>
@@ -4760,16 +4785,16 @@
       <c r="G148" t="s">
         <v>34</v>
       </c>
-      <c r="J148" t="s">
+      <c r="K148" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C149" t="s">
         <v>69</v>
@@ -4786,16 +4811,16 @@
       <c r="G149" t="s">
         <v>34</v>
       </c>
-      <c r="J149" t="s">
+      <c r="K149" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C150" t="s">
         <v>69</v>
@@ -4812,16 +4837,16 @@
       <c r="G150" t="s">
         <v>34</v>
       </c>
-      <c r="J150" t="s">
+      <c r="K150" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C151" t="s">
         <v>69</v>
@@ -4838,16 +4863,16 @@
       <c r="G151" t="s">
         <v>34</v>
       </c>
-      <c r="J151" t="s">
+      <c r="K151" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C152" t="s">
         <v>69</v>
@@ -4864,16 +4889,16 @@
       <c r="G152" t="s">
         <v>34</v>
       </c>
-      <c r="J152" t="s">
+      <c r="K152" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C153" t="s">
         <v>69</v>
@@ -4890,16 +4915,16 @@
       <c r="G153" t="s">
         <v>34</v>
       </c>
-      <c r="J153" t="s">
+      <c r="K153" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C154" t="s">
         <v>69</v>
@@ -4916,16 +4941,16 @@
       <c r="G154" t="s">
         <v>34</v>
       </c>
-      <c r="J154" t="s">
+      <c r="K154" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C155" t="s">
         <v>69</v>
@@ -4942,16 +4967,16 @@
       <c r="G155" t="s">
         <v>34</v>
       </c>
-      <c r="J155" t="s">
+      <c r="K155" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C156" t="s">
         <v>69</v>
@@ -4968,16 +4993,51 @@
       <c r="G156" t="s">
         <v>34</v>
       </c>
-      <c r="J156" t="s">
+      <c r="K156" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>136</v>
+      </c>
+      <c r="C157" t="s">
+        <v>84</v>
+      </c>
+      <c r="D157" t="s">
+        <v>85</v>
+      </c>
+      <c r="E157" t="s">
+        <v>86</v>
+      </c>
+      <c r="F157" t="s">
+        <v>143</v>
+      </c>
+      <c r="G157" t="s">
+        <v>87</v>
+      </c>
+      <c r="H157" t="s">
+        <v>78</v>
+      </c>
+      <c r="I157" t="s">
+        <v>34</v>
+      </c>
+      <c r="J157" t="s">
+        <v>35</v>
+      </c>
+      <c r="K157" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C158" t="s">
         <v>84</v>
@@ -4988,19 +5048,31 @@
       <c r="E158" t="s">
         <v>86</v>
       </c>
+      <c r="F158" t="s">
+        <v>143</v>
+      </c>
       <c r="G158" t="s">
         <v>87</v>
       </c>
+      <c r="H158" t="s">
+        <v>78</v>
+      </c>
+      <c r="I158" t="s">
+        <v>34</v>
+      </c>
       <c r="J158" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="K158" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C159" t="s">
         <v>84</v>
@@ -5011,19 +5083,31 @@
       <c r="E159" t="s">
         <v>86</v>
       </c>
+      <c r="F159" t="s">
+        <v>143</v>
+      </c>
       <c r="G159" t="s">
         <v>87</v>
       </c>
+      <c r="H159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I159" t="s">
+        <v>34</v>
+      </c>
       <c r="J159" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="K159" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C160" t="s">
         <v>84</v>
@@ -5034,19 +5118,31 @@
       <c r="E160" t="s">
         <v>86</v>
       </c>
+      <c r="F160" t="s">
+        <v>143</v>
+      </c>
       <c r="G160" t="s">
         <v>87</v>
       </c>
+      <c r="H160" t="s">
+        <v>78</v>
+      </c>
+      <c r="I160" t="s">
+        <v>34</v>
+      </c>
       <c r="J160" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="K160" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C161" t="s">
         <v>84</v>
@@ -5057,42 +5153,66 @@
       <c r="E161" t="s">
         <v>86</v>
       </c>
+      <c r="F161" t="s">
+        <v>143</v>
+      </c>
       <c r="G161" t="s">
         <v>87</v>
       </c>
+      <c r="H161" t="s">
+        <v>78</v>
+      </c>
+      <c r="I161" t="s">
+        <v>34</v>
+      </c>
       <c r="J161" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="K161" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C162" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D162" t="s">
         <v>85</v>
       </c>
       <c r="E162" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="F162" t="s">
+        <v>144</v>
       </c>
       <c r="G162" t="s">
         <v>87</v>
       </c>
+      <c r="H162" t="s">
+        <v>78</v>
+      </c>
+      <c r="I162" t="s">
+        <v>34</v>
+      </c>
       <c r="J162" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="K162" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C163" t="s">
         <v>92</v>
@@ -5103,19 +5223,31 @@
       <c r="E163" t="s">
         <v>10</v>
       </c>
+      <c r="F163" t="s">
+        <v>144</v>
+      </c>
       <c r="G163" t="s">
         <v>87</v>
       </c>
+      <c r="H163" t="s">
+        <v>78</v>
+      </c>
+      <c r="I163" t="s">
+        <v>34</v>
+      </c>
       <c r="J163" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="K163" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C164" t="s">
         <v>92</v>
@@ -5126,19 +5258,31 @@
       <c r="E164" t="s">
         <v>10</v>
       </c>
+      <c r="F164" t="s">
+        <v>144</v>
+      </c>
       <c r="G164" t="s">
         <v>87</v>
       </c>
+      <c r="H164" t="s">
+        <v>78</v>
+      </c>
+      <c r="I164" t="s">
+        <v>34</v>
+      </c>
       <c r="J164" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="K164" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C165" t="s">
         <v>92</v>
@@ -5149,19 +5293,31 @@
       <c r="E165" t="s">
         <v>10</v>
       </c>
+      <c r="F165" t="s">
+        <v>144</v>
+      </c>
       <c r="G165" t="s">
         <v>87</v>
       </c>
+      <c r="H165" t="s">
+        <v>78</v>
+      </c>
+      <c r="I165" t="s">
+        <v>34</v>
+      </c>
       <c r="J165" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="K165" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C166" t="s">
         <v>92</v>
@@ -5172,39 +5328,28 @@
       <c r="E166" t="s">
         <v>10</v>
       </c>
+      <c r="F166" t="s">
+        <v>144</v>
+      </c>
       <c r="G166" t="s">
         <v>87</v>
       </c>
+      <c r="H166" t="s">
+        <v>78</v>
+      </c>
+      <c r="I166" t="s">
+        <v>34</v>
+      </c>
       <c r="J166" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" t="s">
-        <v>138</v>
-      </c>
-      <c r="C167" t="s">
-        <v>92</v>
-      </c>
-      <c r="D167" t="s">
-        <v>85</v>
-      </c>
-      <c r="E167" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" t="s">
-        <v>87</v>
-      </c>
-      <c r="J167" t="s">
+        <v>35</v>
+      </c>
+      <c r="K166" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C168" t="s">
         <v>93</v>
@@ -5218,11 +5363,11 @@
       <c r="G168" t="s">
         <v>94</v>
       </c>
-      <c r="J168" t="s">
+      <c r="K168" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>93</v>
       </c>
@@ -5235,11 +5380,11 @@
       <c r="G169" t="s">
         <v>94</v>
       </c>
-      <c r="J169" t="s">
+      <c r="K169" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
         <v>93</v>
       </c>
@@ -5252,11 +5397,11 @@
       <c r="G170" t="s">
         <v>94</v>
       </c>
-      <c r="J170" t="s">
+      <c r="K170" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>93</v>
       </c>
@@ -5269,11 +5414,11 @@
       <c r="G171" t="s">
         <v>94</v>
       </c>
-      <c r="J171" t="s">
+      <c r="K171" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
         <v>93</v>
       </c>
@@ -5286,11 +5431,11 @@
       <c r="G172" t="s">
         <v>94</v>
       </c>
-      <c r="J172" t="s">
+      <c r="K172" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>93</v>
       </c>
@@ -5303,11 +5448,11 @@
       <c r="G173" t="s">
         <v>94</v>
       </c>
-      <c r="J173" t="s">
+      <c r="K173" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>93</v>
       </c>
@@ -5320,11 +5465,11 @@
       <c r="G174" t="s">
         <v>94</v>
       </c>
-      <c r="J174" t="s">
+      <c r="K174" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
         <v>93</v>
       </c>
@@ -5337,11 +5482,11 @@
       <c r="G175" t="s">
         <v>94</v>
       </c>
-      <c r="J175" t="s">
+      <c r="K175" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
         <v>93</v>
       </c>
@@ -5354,11 +5499,11 @@
       <c r="G176" t="s">
         <v>94</v>
       </c>
-      <c r="J176" t="s">
+      <c r="K176" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="177" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
         <v>93</v>
       </c>
@@ -5371,11 +5516,11 @@
       <c r="G177" t="s">
         <v>94</v>
       </c>
-      <c r="J177" t="s">
+      <c r="K177" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="178" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
         <v>93</v>
       </c>
@@ -5388,11 +5533,11 @@
       <c r="G178" t="s">
         <v>94</v>
       </c>
-      <c r="J178" t="s">
+      <c r="K178" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
         <v>93</v>
       </c>
@@ -5405,11 +5550,11 @@
       <c r="G179" t="s">
         <v>94</v>
       </c>
-      <c r="J179" t="s">
+      <c r="K179" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="180" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
         <v>93</v>
       </c>
@@ -5422,11 +5567,11 @@
       <c r="G180" t="s">
         <v>94</v>
       </c>
-      <c r="J180" t="s">
+      <c r="K180" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
         <v>93</v>
       </c>
@@ -5439,11 +5584,11 @@
       <c r="G181" t="s">
         <v>94</v>
       </c>
-      <c r="J181" t="s">
+      <c r="K181" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
         <v>93</v>
       </c>
@@ -5456,11 +5601,11 @@
       <c r="G182" t="s">
         <v>94</v>
       </c>
-      <c r="J182" t="s">
+      <c r="K182" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
         <v>93</v>
       </c>
@@ -5473,11 +5618,11 @@
       <c r="G183" t="s">
         <v>94</v>
       </c>
-      <c r="J183" t="s">
+      <c r="K183" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="184" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
         <v>93</v>
       </c>
@@ -5490,11 +5635,11 @@
       <c r="G184" t="s">
         <v>94</v>
       </c>
-      <c r="J184" t="s">
+      <c r="K184" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="185" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
         <v>93</v>
       </c>
@@ -5507,11 +5652,11 @@
       <c r="G185" t="s">
         <v>94</v>
       </c>
-      <c r="J185" t="s">
+      <c r="K185" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="186" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
         <v>93</v>
       </c>
@@ -5524,11 +5669,11 @@
       <c r="G186" t="s">
         <v>94</v>
       </c>
-      <c r="J186" t="s">
+      <c r="K186" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="187" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
         <v>93</v>
       </c>
@@ -5541,11 +5686,11 @@
       <c r="G187" t="s">
         <v>94</v>
       </c>
-      <c r="J187" t="s">
+      <c r="K187" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="188" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
         <v>93</v>
       </c>
@@ -5558,11 +5703,11 @@
       <c r="G188" t="s">
         <v>94</v>
       </c>
-      <c r="J188" t="s">
+      <c r="K188" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="189" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
         <v>93</v>
       </c>
@@ -5575,11 +5720,11 @@
       <c r="G189" t="s">
         <v>94</v>
       </c>
-      <c r="J189" t="s">
+      <c r="K189" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="190" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
         <v>93</v>
       </c>
@@ -5592,11 +5737,11 @@
       <c r="G190" t="s">
         <v>94</v>
       </c>
-      <c r="J190" t="s">
+      <c r="K190" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="191" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
         <v>93</v>
       </c>
@@ -5609,11 +5754,11 @@
       <c r="G191" t="s">
         <v>94</v>
       </c>
-      <c r="J191" t="s">
+      <c r="K191" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="192" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
         <v>93</v>
       </c>
@@ -5626,11 +5771,11 @@
       <c r="G192" t="s">
         <v>94</v>
       </c>
-      <c r="J192" t="s">
+      <c r="K192" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C193" t="s">
         <v>93</v>
       </c>
@@ -5643,11 +5788,11 @@
       <c r="G193" t="s">
         <v>94</v>
       </c>
-      <c r="J193" t="s">
+      <c r="K193" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="194" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
         <v>93</v>
       </c>
@@ -5660,11 +5805,11 @@
       <c r="G194" t="s">
         <v>94</v>
       </c>
-      <c r="J194" t="s">
+      <c r="K194" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="195" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
         <v>93</v>
       </c>
@@ -5677,11 +5822,11 @@
       <c r="G195" t="s">
         <v>94</v>
       </c>
-      <c r="J195" t="s">
+      <c r="K195" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="196" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
         <v>93</v>
       </c>
@@ -5694,11 +5839,11 @@
       <c r="G196" t="s">
         <v>94</v>
       </c>
-      <c r="J196" t="s">
+      <c r="K196" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="197" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
         <v>93</v>
       </c>
@@ -5711,11 +5856,11 @@
       <c r="G197" t="s">
         <v>94</v>
       </c>
-      <c r="J197" t="s">
+      <c r="K197" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="198" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
         <v>93</v>
       </c>
@@ -5728,7 +5873,7 @@
       <c r="G198" t="s">
         <v>94</v>
       </c>
-      <c r="J198" t="s">
+      <c r="K198" t="s">
         <v>125</v>
       </c>
     </row>

--- a/03_Outputs/Form_table.xlsx
+++ b/03_Outputs/Form_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruoningwang/Downloads/MAX_PPT_Automation/03_Outputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LZ\MAX_PPT_Automation\03_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06387EE9-6CA7-D346-9324-6770556AA63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B065C08-44F9-4268-96DB-541B74D23FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -849,19 +849,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -869,7 +869,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -877,7 +877,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -913,25 +913,25 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -946,16 +946,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Good" xfId="7" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比 2" xfId="2" xr:uid="{E5A1EDA4-E711-43DD-BBA0-A691364E4773}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{71970ABC-08FC-411B-AF5D-EB7C5C640B23}"/>
+    <cellStyle name="好" xfId="7" builtinId="26"/>
     <cellStyle name="千位分隔 2" xfId="3" xr:uid="{DFC1BCB8-9820-4DFA-B47A-A227A36E8B0B}"/>
     <cellStyle name="千位分隔 2 2" xfId="4" xr:uid="{32CD480A-7C80-404F-97D3-499EDAC221E8}"/>
     <cellStyle name="千位分隔 2 2 2" xfId="6" xr:uid="{217469A5-D1C2-4738-A3E2-AC2287E6F2E9}"/>
     <cellStyle name="千位分隔 2 2 3" xfId="9" xr:uid="{A4FBAC82-EA8A-495C-A790-DC06810AFE3C}"/>
     <cellStyle name="千位分隔 2 3" xfId="5" xr:uid="{64AFB4BE-3132-43B3-B2EB-40C692CC6F43}"/>
     <cellStyle name="千位分隔 2 4" xfId="8" xr:uid="{97E78D30-1149-43C9-ABD5-2C48F7595A21}"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{71970ABC-08FC-411B-AF5D-EB7C5C640B23}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{E5A1EDA4-E711-43DD-BBA0-A691364E4773}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1237,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H274" sqref="H274"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
@@ -1248,10 +1248,10 @@
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
     <col min="12" max="12" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7825,7 +7825,7 @@
       <c r="A231" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C231" t="s">
@@ -7855,7 +7855,7 @@
       <c r="A232" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -7885,7 +7885,7 @@
       <c r="A233" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -7915,7 +7915,7 @@
       <c r="A234" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C234" t="s">
@@ -7945,7 +7945,7 @@
       <c r="A235" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -7975,7 +7975,7 @@
       <c r="A236" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -8970,7 +8970,7 @@
       <c r="A269" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C269" t="s">
@@ -9000,7 +9000,7 @@
       <c r="A270" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -9030,7 +9030,7 @@
       <c r="A271" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -9060,7 +9060,7 @@
       <c r="A272" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -9092,7 +9092,7 @@
       <c r="A273" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -9124,7 +9124,7 @@
       <c r="A274" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -12972,7 +12972,7 @@
       <c r="A381" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B381" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C381" t="s">
@@ -13004,7 +13004,7 @@
       <c r="A382" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B382" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C382" s="1" t="s">
@@ -13036,7 +13036,7 @@
       <c r="A383" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C383" s="1" t="s">
@@ -13068,7 +13068,7 @@
       <c r="A384" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C384" s="1" t="s">
@@ -13102,7 +13102,7 @@
       <c r="A385" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C385" s="1" t="s">
@@ -13136,7 +13136,7 @@
       <c r="A386" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B386" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C386" s="1" t="s">
@@ -13170,7 +13170,7 @@
       <c r="A387" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B387" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C387" s="1" t="s">
@@ -13204,7 +13204,7 @@
       <c r="A388" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="B388" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -13238,7 +13238,7 @@
       <c r="A389" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B389" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C389" s="1" t="s">
@@ -13272,7 +13272,7 @@
       <c r="A390" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B390" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C390" s="1" t="s">
@@ -13306,7 +13306,7 @@
       <c r="A391" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B391" s="3" t="s">
+      <c r="B391" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -13340,7 +13340,7 @@
       <c r="A392" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B392" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C392" s="1" t="s">
@@ -13374,7 +13374,7 @@
       <c r="A393" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B393" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C393" t="s">
@@ -13406,7 +13406,7 @@
       <c r="A394" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B394" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C394" s="1" t="s">
@@ -13438,7 +13438,7 @@
       <c r="A395" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B395" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C395" s="1" t="s">
@@ -13470,7 +13470,7 @@
       <c r="A396" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="B396" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C396" t="s">
@@ -13502,7 +13502,7 @@
       <c r="A397" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="B397" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C397" s="1" t="s">
@@ -13534,7 +13534,7 @@
       <c r="A398" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B398" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C398" s="1" t="s">

--- a/03_Outputs/Form_table.xlsx
+++ b/03_Outputs/Form_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LZ\MAX_PPT_Automation\03_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F541125B-96F3-43AA-859D-A35BA46B06D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3032C1E-64C1-4369-A2C4-6ED94D2E4C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3917" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="240">
   <si>
     <t>Maylan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -857,6 +857,10 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                              </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,11 +1235,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L442"/>
+  <dimension ref="A1:L444"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C403" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13580,7 +13584,7 @@
         <v>31</v>
       </c>
       <c r="L399" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="400" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13603,7 +13607,7 @@
         <v>31</v>
       </c>
       <c r="L400" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="401" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13626,7 +13630,7 @@
         <v>31</v>
       </c>
       <c r="L401" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="402" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13649,7 +13653,7 @@
         <v>31</v>
       </c>
       <c r="L402" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="403" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13672,7 +13676,7 @@
         <v>31</v>
       </c>
       <c r="L403" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="404" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13695,7 +13699,7 @@
         <v>31</v>
       </c>
       <c r="L404" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="405" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13718,7 +13722,7 @@
         <v>31</v>
       </c>
       <c r="L405" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="406" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13741,7 +13745,7 @@
         <v>31</v>
       </c>
       <c r="L406" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="407" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13764,7 +13768,7 @@
         <v>31</v>
       </c>
       <c r="L407" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="408" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13787,7 +13791,7 @@
         <v>31</v>
       </c>
       <c r="L408" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="409" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13810,10 +13814,10 @@
         <v>31</v>
       </c>
       <c r="L409" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
         <v>0</v>
       </c>
@@ -13821,22 +13825,22 @@
         <v>235</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G410" t="s">
-        <v>10</v>
+      <c r="G410" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="H410" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L410" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
         <v>0</v>
       </c>
@@ -13856,7 +13860,7 @@
         <v>31</v>
       </c>
       <c r="L411" s="4" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -13872,14 +13876,14 @@
       <c r="D412" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G412" s="4" t="s">
+      <c r="G412" t="s">
         <v>10</v>
       </c>
       <c r="H412" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L412" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -13902,7 +13906,7 @@
         <v>31</v>
       </c>
       <c r="L413" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -13925,7 +13929,7 @@
         <v>31</v>
       </c>
       <c r="L414" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
@@ -13948,7 +13952,7 @@
         <v>31</v>
       </c>
       <c r="L415" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -13971,7 +13975,7 @@
         <v>31</v>
       </c>
       <c r="L416" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -13994,7 +13998,7 @@
         <v>31</v>
       </c>
       <c r="L417" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
@@ -14017,7 +14021,7 @@
         <v>31</v>
       </c>
       <c r="L418" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -14040,7 +14044,7 @@
         <v>31</v>
       </c>
       <c r="L419" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
@@ -14063,36 +14067,54 @@
         <v>31</v>
       </c>
       <c r="L420" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A421" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G421" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H421" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L421" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A422" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D422" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G422" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H422" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L422" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A421" s="4"/>
-      <c r="B421" s="4"/>
-      <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
-      <c r="E421" s="4"/>
-      <c r="F421" s="4"/>
-      <c r="G421" s="4"/>
-      <c r="H421" s="4"/>
-      <c r="I421" s="4"/>
-      <c r="J421" s="4"/>
-      <c r="K421" s="4"/>
-      <c r="L421" s="4"/>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A422" s="4"/>
-      <c r="B422" s="4"/>
-      <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
-      <c r="E422" s="4"/>
-      <c r="F422" s="4"/>
-      <c r="G422" s="4"/>
-      <c r="H422" s="4"/>
-      <c r="I422" s="4"/>
-      <c r="J422" s="4"/>
-      <c r="K422" s="4"/>
-      <c r="L422" s="4"/>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
@@ -14374,6 +14396,34 @@
       <c r="K442" s="4"/>
       <c r="L442" s="4"/>
     </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A443" s="4"/>
+      <c r="B443" s="4"/>
+      <c r="C443" s="4"/>
+      <c r="D443" s="4"/>
+      <c r="E443" s="4"/>
+      <c r="F443" s="4"/>
+      <c r="G443" s="4"/>
+      <c r="H443" s="4"/>
+      <c r="I443" s="4"/>
+      <c r="J443" s="4"/>
+      <c r="K443" s="4"/>
+      <c r="L443" s="4"/>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A444" s="4"/>
+      <c r="B444" s="4"/>
+      <c r="C444" s="4"/>
+      <c r="D444" s="4"/>
+      <c r="E444" s="4"/>
+      <c r="F444" s="4"/>
+      <c r="G444" s="4"/>
+      <c r="H444" s="4"/>
+      <c r="I444" s="4"/>
+      <c r="J444" s="4"/>
+      <c r="K444" s="4"/>
+      <c r="L444" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_Outputs/Form_table.xlsx
+++ b/03_Outputs/Form_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LZ\MAX_PPT_Automation\03_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA85983-C84B-42A0-995A-80DE82F8579C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB131D6-9ED5-45E8-B075-C242156A7B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="242">
   <si>
     <t>Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -857,6 +857,18 @@
   </si>
   <si>
     <t>Restriction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowthTrendMAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P46_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P47_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,7 +1243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L444"/>
+  <dimension ref="A1:L446"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14113,312 +14125,676 @@
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A423" s="4"/>
-      <c r="B423" s="4"/>
-      <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
+      <c r="A423" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
-      <c r="G423" s="4"/>
-      <c r="H423" s="4"/>
+      <c r="G423" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H423" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
       <c r="K423" s="4"/>
-      <c r="L423" s="4"/>
+      <c r="L423" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A424" s="4"/>
-      <c r="B424" s="4"/>
-      <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
+      <c r="A424" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D424" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
-      <c r="G424" s="4"/>
-      <c r="H424" s="4"/>
+      <c r="G424" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H424" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
       <c r="K424" s="4"/>
-      <c r="L424" s="4"/>
+      <c r="L424" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A425" s="4"/>
-      <c r="B425" s="4"/>
-      <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
+      <c r="A425" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
-      <c r="G425" s="4"/>
-      <c r="H425" s="4"/>
+      <c r="G425" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H425" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
       <c r="K425" s="4"/>
-      <c r="L425" s="4"/>
+      <c r="L425" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A426" s="4"/>
-      <c r="B426" s="4"/>
-      <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
+      <c r="A426" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
-      <c r="G426" s="4"/>
-      <c r="H426" s="4"/>
+      <c r="G426" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H426" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
       <c r="K426" s="4"/>
-      <c r="L426" s="4"/>
+      <c r="L426" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A427" s="4"/>
-      <c r="B427" s="4"/>
-      <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
+      <c r="A427" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
-      <c r="G427" s="4"/>
-      <c r="H427" s="4"/>
+      <c r="G427" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H427" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
       <c r="K427" s="4"/>
-      <c r="L427" s="4"/>
+      <c r="L427" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A428" s="4"/>
-      <c r="B428" s="4"/>
-      <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
+      <c r="A428" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D428" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
-      <c r="G428" s="4"/>
-      <c r="H428" s="4"/>
+      <c r="G428" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H428" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
       <c r="K428" s="4"/>
-      <c r="L428" s="4"/>
+      <c r="L428" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A429" s="4"/>
-      <c r="B429" s="4"/>
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
+      <c r="A429" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C429" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D429" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
-      <c r="G429" s="4"/>
-      <c r="H429" s="4"/>
+      <c r="G429" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H429" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
       <c r="K429" s="4"/>
-      <c r="L429" s="4"/>
+      <c r="L429" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A430" s="4"/>
-      <c r="B430" s="4"/>
-      <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
+      <c r="A430" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
-      <c r="G430" s="4"/>
-      <c r="H430" s="4"/>
+      <c r="G430" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H430" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
       <c r="K430" s="4"/>
-      <c r="L430" s="4"/>
+      <c r="L430" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A431" s="4"/>
-      <c r="B431" s="4"/>
-      <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
+      <c r="A431" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D431" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
-      <c r="G431" s="4"/>
-      <c r="H431" s="4"/>
+      <c r="G431" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H431" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
       <c r="K431" s="4"/>
-      <c r="L431" s="4"/>
+      <c r="L431" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A432" s="4"/>
-      <c r="B432" s="4"/>
-      <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
+      <c r="A432" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C432" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D432" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
-      <c r="G432" s="4"/>
-      <c r="H432" s="4"/>
+      <c r="G432" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H432" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
       <c r="K432" s="4"/>
-      <c r="L432" s="4"/>
+      <c r="L432" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A433" s="4"/>
-      <c r="B433" s="4"/>
-      <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
+      <c r="A433" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D433" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
-      <c r="G433" s="4"/>
-      <c r="H433" s="4"/>
+      <c r="G433" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H433" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
       <c r="K433" s="4"/>
-      <c r="L433" s="4"/>
+      <c r="L433" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A434" s="4"/>
-      <c r="B434" s="4"/>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
+      <c r="A434" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D434" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
-      <c r="G434" s="4"/>
-      <c r="H434" s="4"/>
+      <c r="G434" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H434" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
       <c r="K434" s="4"/>
-      <c r="L434" s="4"/>
+      <c r="L434" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A435" s="4"/>
-      <c r="B435" s="4"/>
-      <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
+      <c r="A435" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D435" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
-      <c r="G435" s="4"/>
-      <c r="H435" s="4"/>
+      <c r="G435" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H435" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
       <c r="K435" s="4"/>
-      <c r="L435" s="4"/>
+      <c r="L435" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A436" s="4"/>
-      <c r="B436" s="4"/>
-      <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
+      <c r="A436" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D436" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
-      <c r="G436" s="4"/>
-      <c r="H436" s="4"/>
+      <c r="G436" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H436" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
       <c r="K436" s="4"/>
-      <c r="L436" s="4"/>
+      <c r="L436" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A437" s="4"/>
-      <c r="B437" s="4"/>
-      <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
+      <c r="A437" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D437" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
-      <c r="G437" s="4"/>
-      <c r="H437" s="4"/>
+      <c r="G437" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H437" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
       <c r="K437" s="4"/>
-      <c r="L437" s="4"/>
+      <c r="L437" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A438" s="4"/>
-      <c r="B438" s="4"/>
-      <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
+      <c r="A438" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C438" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D438" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
-      <c r="G438" s="4"/>
-      <c r="H438" s="4"/>
+      <c r="G438" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H438" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
       <c r="K438" s="4"/>
-      <c r="L438" s="4"/>
+      <c r="L438" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A439" s="4"/>
-      <c r="B439" s="4"/>
-      <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
+      <c r="A439" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C439" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D439" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
-      <c r="G439" s="4"/>
-      <c r="H439" s="4"/>
+      <c r="G439" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H439" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
       <c r="K439" s="4"/>
-      <c r="L439" s="4"/>
+      <c r="L439" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A440" s="4"/>
-      <c r="B440" s="4"/>
-      <c r="C440" s="4"/>
-      <c r="D440" s="4"/>
+      <c r="A440" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D440" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
-      <c r="G440" s="4"/>
-      <c r="H440" s="4"/>
+      <c r="G440" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H440" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
       <c r="K440" s="4"/>
-      <c r="L440" s="4"/>
+      <c r="L440" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A441" s="4"/>
-      <c r="B441" s="4"/>
-      <c r="C441" s="4"/>
-      <c r="D441" s="4"/>
+      <c r="A441" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D441" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
-      <c r="G441" s="4"/>
-      <c r="H441" s="4"/>
+      <c r="G441" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H441" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
       <c r="K441" s="4"/>
-      <c r="L441" s="4"/>
+      <c r="L441" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A442" s="4"/>
-      <c r="B442" s="4"/>
-      <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
+      <c r="A442" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C442" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D442" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
-      <c r="G442" s="4"/>
-      <c r="H442" s="4"/>
+      <c r="G442" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H442" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
       <c r="K442" s="4"/>
-      <c r="L442" s="4"/>
+      <c r="L442" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A443" s="4"/>
-      <c r="B443" s="4"/>
-      <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
+      <c r="A443" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C443" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D443" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
-      <c r="G443" s="4"/>
-      <c r="H443" s="4"/>
+      <c r="G443" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H443" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
       <c r="K443" s="4"/>
-      <c r="L443" s="4"/>
+      <c r="L443" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A444" s="4"/>
-      <c r="B444" s="4"/>
-      <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
+      <c r="A444" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D444" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
-      <c r="G444" s="4"/>
-      <c r="H444" s="4"/>
+      <c r="G444" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H444" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
       <c r="K444" s="4"/>
-      <c r="L444" s="4"/>
+      <c r="L444" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A445" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D445" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E445" s="4"/>
+      <c r="F445" s="4"/>
+      <c r="G445" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H445" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I445" s="4"/>
+      <c r="J445" s="4"/>
+      <c r="K445" s="4"/>
+      <c r="L445" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A446" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C446" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D446" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E446" s="4"/>
+      <c r="F446" s="4"/>
+      <c r="G446" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H446" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I446" s="4"/>
+      <c r="J446" s="4"/>
+      <c r="K446" s="4"/>
+      <c r="L446" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/03_Outputs/Form_table.xlsx
+++ b/03_Outputs/Form_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LZ\MAX_PPT_Automation\03_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB131D6-9ED5-45E8-B075-C242156A7B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBB520-02F7-4299-BE4A-90A01E1B49A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="239">
   <si>
     <t>Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -848,10 +848,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mylan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>City Tier:Tier 1,PRODUCT_EN:A DI XIAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -860,15 +856,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GrowthTrendMAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P46_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P47_1</t>
+    <t>Maylan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,8 +1234,8 @@
   <dimension ref="A1:L446"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1279,7 +1267,7 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F1" t="s">
         <v>131</v>
@@ -1305,7 +1293,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -1328,7 +1316,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -1351,7 +1339,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -1374,7 +1362,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -1397,7 +1385,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -1420,7 +1408,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -1443,7 +1431,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -1466,7 +1454,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -1489,7 +1477,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -1512,7 +1500,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -1535,7 +1523,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -1558,7 +1546,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -1581,7 +1569,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -1604,7 +1592,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -1627,7 +1615,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -1650,7 +1638,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -1673,7 +1661,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -1696,7 +1684,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -1719,7 +1707,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
@@ -1742,7 +1730,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
@@ -1765,7 +1753,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
         <v>123</v>
@@ -1791,7 +1779,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
         <v>123</v>
@@ -1817,7 +1805,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s">
         <v>124</v>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s">
         <v>124</v>
@@ -1863,7 +1851,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s">
         <v>124</v>
@@ -1886,7 +1874,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s">
         <v>123</v>
@@ -1912,7 +1900,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s">
         <v>123</v>
@@ -1938,7 +1926,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s">
         <v>124</v>
@@ -1961,7 +1949,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s">
         <v>124</v>
@@ -1984,7 +1972,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
         <v>124</v>
@@ -2007,7 +1995,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s">
         <v>123</v>
@@ -2033,7 +2021,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s">
         <v>123</v>
@@ -2059,7 +2047,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" t="s">
         <v>124</v>
@@ -2082,7 +2070,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
         <v>124</v>
@@ -2105,7 +2093,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s">
         <v>124</v>
@@ -2128,7 +2116,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B37" t="s">
         <v>123</v>
@@ -2154,7 +2142,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s">
         <v>123</v>
@@ -2180,7 +2168,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
         <v>124</v>
@@ -2203,7 +2191,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s">
         <v>124</v>
@@ -2226,7 +2214,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s">
         <v>124</v>
@@ -2249,7 +2237,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s">
         <v>120</v>
@@ -2275,7 +2263,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B43" t="s">
         <v>120</v>
@@ -2301,7 +2289,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B44" t="s">
         <v>120</v>
@@ -2327,7 +2315,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s">
         <v>120</v>
@@ -2353,7 +2341,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B46" t="s">
         <v>120</v>
@@ -2379,7 +2367,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s">
         <v>120</v>
@@ -2405,7 +2393,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B48" t="s">
         <v>120</v>
@@ -2431,7 +2419,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B49" t="s">
         <v>120</v>
@@ -2457,7 +2445,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s">
         <v>120</v>
@@ -2483,7 +2471,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s">
         <v>120</v>
@@ -2509,7 +2497,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B52" t="s">
         <v>120</v>
@@ -2535,7 +2523,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B53" t="s">
         <v>120</v>
@@ -2561,7 +2549,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B54" t="s">
         <v>121</v>
@@ -2587,7 +2575,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B55" t="s">
         <v>121</v>
@@ -2613,7 +2601,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s">
         <v>121</v>
@@ -2639,7 +2627,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s">
         <v>121</v>
@@ -2665,7 +2653,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s">
         <v>121</v>
@@ -2691,7 +2679,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s">
         <v>121</v>
@@ -2717,7 +2705,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s">
         <v>121</v>
@@ -2743,7 +2731,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s">
         <v>121</v>
@@ -2769,7 +2757,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B62" t="s">
         <v>121</v>
@@ -2795,7 +2783,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s">
         <v>121</v>
@@ -2821,7 +2809,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B64" t="s">
         <v>126</v>
@@ -2844,7 +2832,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B65" t="s">
         <v>126</v>
@@ -2867,7 +2855,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
         <v>126</v>
@@ -2890,7 +2878,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B67" t="s">
         <v>126</v>
@@ -2913,7 +2901,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B68" t="s">
         <v>126</v>
@@ -2936,7 +2924,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B69" t="s">
         <v>126</v>
@@ -2959,7 +2947,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
         <v>126</v>
@@ -2982,7 +2970,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B71" t="s">
         <v>126</v>
@@ -3005,7 +2993,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B72" t="s">
         <v>126</v>
@@ -3028,7 +3016,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
         <v>126</v>
@@ -3051,7 +3039,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B74" t="s">
         <v>122</v>
@@ -3080,7 +3068,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B75" t="s">
         <v>122</v>
@@ -3109,7 +3097,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B76" t="s">
         <v>122</v>
@@ -3138,7 +3126,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B77" t="s">
         <v>122</v>
@@ -3167,7 +3155,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B78" t="s">
         <v>122</v>
@@ -3196,7 +3184,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B79" t="s">
         <v>122</v>
@@ -3225,7 +3213,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s">
         <v>122</v>
@@ -3254,7 +3242,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B81" t="s">
         <v>122</v>
@@ -3283,7 +3271,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
         <v>122</v>
@@ -3312,7 +3300,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B83" t="s">
         <v>122</v>
@@ -3341,7 +3329,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B84" t="s">
         <v>122</v>
@@ -3370,7 +3358,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B85" t="s">
         <v>120</v>
@@ -3399,7 +3387,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
         <v>120</v>
@@ -3428,7 +3416,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B87" t="s">
         <v>120</v>
@@ -3457,7 +3445,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B88" t="s">
         <v>120</v>
@@ -3486,7 +3474,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B89" t="s">
         <v>120</v>
@@ -3515,7 +3503,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B90" t="s">
         <v>120</v>
@@ -3544,7 +3532,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s">
         <v>120</v>
@@ -3573,7 +3561,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B92" t="s">
         <v>120</v>
@@ -3602,7 +3590,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B93" t="s">
         <v>120</v>
@@ -3631,7 +3619,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B94" t="s">
         <v>120</v>
@@ -3660,7 +3648,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B95" t="s">
         <v>120</v>
@@ -3689,7 +3677,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B96" t="s">
         <v>120</v>
@@ -3718,7 +3706,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B97" t="s">
         <v>120</v>
@@ -3747,7 +3735,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B98" t="s">
         <v>120</v>
@@ -3776,7 +3764,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B99" t="s">
         <v>120</v>
@@ -3805,7 +3793,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B100" t="s">
         <v>120</v>
@@ -3834,7 +3822,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B101" t="s">
         <v>120</v>
@@ -3863,7 +3851,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B102" t="s">
         <v>120</v>
@@ -3892,7 +3880,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B103" t="s">
         <v>120</v>
@@ -3921,7 +3909,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B104" t="s">
         <v>120</v>
@@ -3950,7 +3938,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B105" t="s">
         <v>120</v>
@@ -3979,7 +3967,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B106" t="s">
         <v>120</v>
@@ -4008,7 +3996,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B107" t="s">
         <v>120</v>
@@ -4037,7 +4025,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B108" t="s">
         <v>120</v>
@@ -4066,7 +4054,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B109" t="s">
         <v>120</v>
@@ -4095,7 +4083,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B110" t="s">
         <v>120</v>
@@ -4124,7 +4112,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B111" t="s">
         <v>120</v>
@@ -4153,7 +4141,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B112" t="s">
         <v>120</v>
@@ -4182,7 +4170,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B113" t="s">
         <v>121</v>
@@ -4208,7 +4196,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B114" t="s">
         <v>121</v>
@@ -4234,7 +4222,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B115" t="s">
         <v>121</v>
@@ -4260,7 +4248,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B116" t="s">
         <v>121</v>
@@ -4286,7 +4274,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B117" t="s">
         <v>121</v>
@@ -4312,7 +4300,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B118" t="s">
         <v>121</v>
@@ -4338,7 +4326,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s">
         <v>121</v>
@@ -4364,7 +4352,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
@@ -4390,7 +4378,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
@@ -4416,7 +4404,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B122" t="s">
         <v>121</v>
@@ -4442,7 +4430,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B123" t="s">
         <v>121</v>
@@ -4468,7 +4456,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B124" t="s">
         <v>121</v>
@@ -4494,7 +4482,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B125" t="s">
         <v>121</v>
@@ -4520,7 +4508,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B126" t="s">
         <v>121</v>
@@ -4546,7 +4534,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B127" t="s">
         <v>121</v>
@@ -4572,7 +4560,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B128" t="s">
         <v>121</v>
@@ -4598,7 +4586,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B129" t="s">
         <v>121</v>
@@ -4624,7 +4612,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B130" t="s">
         <v>121</v>
@@ -4650,7 +4638,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B131" t="s">
         <v>121</v>
@@ -4676,7 +4664,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B132" t="s">
         <v>121</v>
@@ -4702,7 +4690,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B133" t="s">
         <v>121</v>
@@ -4728,7 +4716,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B134" t="s">
         <v>121</v>
@@ -4754,7 +4742,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
         <v>126</v>
@@ -4777,7 +4765,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B136" t="s">
         <v>126</v>
@@ -4800,7 +4788,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B137" t="s">
         <v>126</v>
@@ -4823,7 +4811,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B138" t="s">
         <v>126</v>
@@ -4846,7 +4834,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B139" t="s">
         <v>126</v>
@@ -4869,7 +4857,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B140" t="s">
         <v>126</v>
@@ -4892,7 +4880,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B141" t="s">
         <v>126</v>
@@ -4915,7 +4903,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B142" t="s">
         <v>126</v>
@@ -4938,7 +4926,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B143" t="s">
         <v>126</v>
@@ -4961,7 +4949,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B144" t="s">
         <v>126</v>
@@ -4984,7 +4972,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B145" t="s">
         <v>126</v>
@@ -5007,7 +4995,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B146" t="s">
         <v>126</v>
@@ -5030,7 +5018,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B147" t="s">
         <v>126</v>
@@ -5053,7 +5041,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B148" t="s">
         <v>126</v>
@@ -5076,7 +5064,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B149" t="s">
         <v>126</v>
@@ -5099,7 +5087,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B150" t="s">
         <v>126</v>
@@ -5122,7 +5110,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B151" t="s">
         <v>126</v>
@@ -5145,7 +5133,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B152" t="s">
         <v>126</v>
@@ -5168,7 +5156,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B153" t="s">
         <v>126</v>
@@ -5191,7 +5179,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B154" t="s">
         <v>126</v>
@@ -5214,7 +5202,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B155" t="s">
         <v>126</v>
@@ -5237,7 +5225,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B156" t="s">
         <v>126</v>
@@ -5260,7 +5248,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B157" t="s">
         <v>134</v>
@@ -5295,7 +5283,7 @@
     </row>
     <row r="158" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>134</v>
@@ -5330,7 +5318,7 @@
     </row>
     <row r="159" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>134</v>
@@ -5365,7 +5353,7 @@
     </row>
     <row r="160" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>134</v>
@@ -5400,7 +5388,7 @@
     </row>
     <row r="161" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>134</v>
@@ -5435,7 +5423,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>134</v>
@@ -5470,7 +5458,7 @@
     </row>
     <row r="163" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>134</v>
@@ -5505,7 +5493,7 @@
     </row>
     <row r="164" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>134</v>
@@ -5540,7 +5528,7 @@
     </row>
     <row r="165" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>134</v>
@@ -5575,7 +5563,7 @@
     </row>
     <row r="166" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>134</v>
@@ -5610,7 +5598,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>133</v>
@@ -5636,7 +5624,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>133</v>
@@ -5662,7 +5650,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>134</v>
@@ -5697,7 +5685,7 @@
     </row>
     <row r="170" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>134</v>
@@ -5732,7 +5720,7 @@
     </row>
     <row r="171" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>134</v>
@@ -5767,7 +5755,7 @@
     </row>
     <row r="172" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>134</v>
@@ -5802,7 +5790,7 @@
     </row>
     <row r="173" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>134</v>
@@ -5837,7 +5825,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>134</v>
@@ -5872,7 +5860,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>134</v>
@@ -5907,7 +5895,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>134</v>
@@ -5942,7 +5930,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>134</v>
@@ -5977,7 +5965,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>134</v>
@@ -6012,7 +6000,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>134</v>
@@ -6047,7 +6035,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>134</v>
@@ -6082,7 +6070,7 @@
     </row>
     <row r="181" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>134</v>
@@ -6117,7 +6105,7 @@
     </row>
     <row r="182" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>134</v>
@@ -6152,7 +6140,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>134</v>
@@ -6187,7 +6175,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>134</v>
@@ -6222,7 +6210,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>134</v>
@@ -6257,7 +6245,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>134</v>
@@ -6292,7 +6280,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>134</v>
@@ -6327,7 +6315,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>134</v>
@@ -6362,7 +6350,7 @@
     </row>
     <row r="189" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>134</v>
@@ -6397,7 +6385,7 @@
     </row>
     <row r="190" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>134</v>
@@ -6432,7 +6420,7 @@
     </row>
     <row r="191" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>134</v>
@@ -6467,7 +6455,7 @@
     </row>
     <row r="192" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>134</v>
@@ -6502,7 +6490,7 @@
     </row>
     <row r="193" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>134</v>
@@ -6537,7 +6525,7 @@
     </row>
     <row r="194" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>134</v>
@@ -6572,7 +6560,7 @@
     </row>
     <row r="195" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>134</v>
@@ -6607,7 +6595,7 @@
     </row>
     <row r="196" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>134</v>
@@ -6642,7 +6630,7 @@
     </row>
     <row r="197" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>134</v>
@@ -6677,7 +6665,7 @@
     </row>
     <row r="198" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>134</v>
@@ -6712,7 +6700,7 @@
     </row>
     <row r="199" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>134</v>
@@ -6747,7 +6735,7 @@
     </row>
     <row r="200" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B200" t="s">
         <v>134</v>
@@ -6783,7 +6771,7 @@
     </row>
     <row r="201" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>134</v>
@@ -6818,7 +6806,7 @@
     </row>
     <row r="202" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>134</v>
@@ -6853,7 +6841,7 @@
     </row>
     <row r="203" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>134</v>
@@ -6888,7 +6876,7 @@
     </row>
     <row r="204" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>134</v>
@@ -6923,7 +6911,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>134</v>
@@ -6958,7 +6946,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>134</v>
@@ -6993,7 +6981,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>134</v>
@@ -7028,7 +7016,7 @@
     </row>
     <row r="208" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>134</v>
@@ -7063,7 +7051,7 @@
     </row>
     <row r="209" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>134</v>
@@ -7098,7 +7086,7 @@
     </row>
     <row r="210" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>134</v>
@@ -7133,7 +7121,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>134</v>
@@ -7168,7 +7156,7 @@
     </row>
     <row r="212" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>134</v>
@@ -7203,7 +7191,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>134</v>
@@ -7238,7 +7226,7 @@
     </row>
     <row r="214" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>134</v>
@@ -7273,7 +7261,7 @@
     </row>
     <row r="215" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>134</v>
@@ -7308,7 +7296,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>134</v>
@@ -7343,7 +7331,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>134</v>
@@ -7378,7 +7366,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>134</v>
@@ -7413,7 +7401,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>134</v>
@@ -7448,7 +7436,7 @@
     </row>
     <row r="220" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>134</v>
@@ -7483,7 +7471,7 @@
     </row>
     <row r="221" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>134</v>
@@ -7518,7 +7506,7 @@
     </row>
     <row r="222" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>134</v>
@@ -7553,7 +7541,7 @@
     </row>
     <row r="223" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>134</v>
@@ -7588,7 +7576,7 @@
     </row>
     <row r="224" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>134</v>
@@ -7623,7 +7611,7 @@
     </row>
     <row r="225" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>134</v>
@@ -7658,7 +7646,7 @@
     </row>
     <row r="226" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>134</v>
@@ -7693,7 +7681,7 @@
     </row>
     <row r="227" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>134</v>
@@ -7728,7 +7716,7 @@
     </row>
     <row r="228" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>134</v>
@@ -7763,7 +7751,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>134</v>
@@ -7798,7 +7786,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>134</v>
@@ -7833,7 +7821,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>141</v>
@@ -7863,7 +7851,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>141</v>
@@ -7893,7 +7881,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>141</v>
@@ -7923,7 +7911,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>141</v>
@@ -7953,7 +7941,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>141</v>
@@ -7983,7 +7971,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>141</v>
@@ -8013,7 +8001,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>123</v>
@@ -8043,7 +8031,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>123</v>
@@ -8073,7 +8061,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>123</v>
@@ -8099,7 +8087,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>123</v>
@@ -8125,7 +8113,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>123</v>
@@ -8151,7 +8139,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>124</v>
@@ -8179,7 +8167,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>124</v>
@@ -8207,7 +8195,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>124</v>
@@ -8235,7 +8223,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>124</v>
@@ -8258,7 +8246,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>124</v>
@@ -8281,7 +8269,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>124</v>
@@ -8304,7 +8292,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>123</v>
@@ -8334,7 +8322,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>123</v>
@@ -8364,7 +8352,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>123</v>
@@ -8394,7 +8382,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>123</v>
@@ -8424,7 +8412,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>123</v>
@@ -8454,7 +8442,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>124</v>
@@ -8482,7 +8470,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>124</v>
@@ -8510,7 +8498,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>124</v>
@@ -8538,7 +8526,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>124</v>
@@ -8566,7 +8554,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>124</v>
@@ -8594,7 +8582,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>124</v>
@@ -8622,7 +8610,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>134</v>
@@ -8658,7 +8646,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>134</v>
@@ -8693,7 +8681,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>134</v>
@@ -8728,7 +8716,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>134</v>
@@ -8763,7 +8751,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>134</v>
@@ -8798,7 +8786,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>134</v>
@@ -8834,7 +8822,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>134</v>
@@ -8870,7 +8858,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>134</v>
@@ -8906,7 +8894,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>134</v>
@@ -8942,7 +8930,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>134</v>
@@ -8978,7 +8966,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>141</v>
@@ -9008,7 +8996,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>141</v>
@@ -9038,7 +9026,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>141</v>
@@ -9068,7 +9056,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>141</v>
@@ -9100,7 +9088,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>141</v>
@@ -9132,7 +9120,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>141</v>
@@ -9164,7 +9152,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>134</v>
@@ -9200,7 +9188,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>134</v>
@@ -9236,7 +9224,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>134</v>
@@ -9272,7 +9260,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>134</v>
@@ -9308,7 +9296,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>134</v>
@@ -9344,7 +9332,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>134</v>
@@ -9380,7 +9368,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>134</v>
@@ -9416,7 +9404,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>134</v>
@@ -9452,7 +9440,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>134</v>
@@ -9488,7 +9476,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>134</v>
@@ -9524,7 +9512,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>134</v>
@@ -9560,7 +9548,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>134</v>
@@ -9596,7 +9584,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>134</v>
@@ -9632,7 +9620,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>134</v>
@@ -9668,7 +9656,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>134</v>
@@ -9704,7 +9692,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>134</v>
@@ -9740,7 +9728,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>134</v>
@@ -9776,7 +9764,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>134</v>
@@ -9812,7 +9800,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>134</v>
@@ -9848,7 +9836,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>134</v>
@@ -9884,7 +9872,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>134</v>
@@ -9920,7 +9908,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>134</v>
@@ -9956,7 +9944,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>134</v>
@@ -9992,7 +9980,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>134</v>
@@ -10028,7 +10016,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>134</v>
@@ -10064,7 +10052,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>134</v>
@@ -10100,7 +10088,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>134</v>
@@ -10136,7 +10124,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>134</v>
@@ -10172,7 +10160,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>134</v>
@@ -10208,7 +10196,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>134</v>
@@ -10244,7 +10232,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>134</v>
@@ -10280,7 +10268,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>134</v>
@@ -10316,7 +10304,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>134</v>
@@ -10352,7 +10340,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>134</v>
@@ -10388,7 +10376,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>134</v>
@@ -10424,7 +10412,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>134</v>
@@ -10460,7 +10448,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>134</v>
@@ -10496,7 +10484,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>134</v>
@@ -10532,7 +10520,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>134</v>
@@ -10568,7 +10556,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>134</v>
@@ -10604,7 +10592,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>134</v>
@@ -10640,7 +10628,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>134</v>
@@ -10676,7 +10664,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>134</v>
@@ -10712,7 +10700,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>134</v>
@@ -10748,7 +10736,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>134</v>
@@ -10784,7 +10772,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>134</v>
@@ -10820,7 +10808,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>134</v>
@@ -10856,7 +10844,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>134</v>
@@ -10892,7 +10880,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>134</v>
@@ -10928,7 +10916,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>134</v>
@@ -10964,7 +10952,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>134</v>
@@ -11000,7 +10988,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>134</v>
@@ -11036,7 +11024,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>134</v>
@@ -11072,7 +11060,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>134</v>
@@ -11108,7 +11096,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>134</v>
@@ -11144,7 +11132,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>134</v>
@@ -11180,7 +11168,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>134</v>
@@ -11216,7 +11204,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>134</v>
@@ -11252,7 +11240,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>134</v>
@@ -11288,7 +11276,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>134</v>
@@ -11324,7 +11312,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>134</v>
@@ -11360,7 +11348,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>134</v>
@@ -11396,7 +11384,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>134</v>
@@ -11432,7 +11420,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>134</v>
@@ -11468,7 +11456,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>134</v>
@@ -11504,7 +11492,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>134</v>
@@ -11540,7 +11528,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>134</v>
@@ -11576,7 +11564,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>134</v>
@@ -11612,7 +11600,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>134</v>
@@ -11648,7 +11636,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>134</v>
@@ -11684,7 +11672,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>134</v>
@@ -11720,7 +11708,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>134</v>
@@ -11756,7 +11744,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>134</v>
@@ -11792,7 +11780,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>134</v>
@@ -11828,7 +11816,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>134</v>
@@ -11864,7 +11852,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>134</v>
@@ -11900,7 +11888,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>134</v>
@@ -11936,7 +11924,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>134</v>
@@ -11972,7 +11960,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>134</v>
@@ -12008,7 +11996,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B354" s="4" t="s">
         <v>134</v>
@@ -12044,7 +12032,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>134</v>
@@ -12080,7 +12068,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>134</v>
@@ -12116,7 +12104,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>134</v>
@@ -12152,7 +12140,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>134</v>
@@ -12188,7 +12176,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>134</v>
@@ -12224,7 +12212,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>134</v>
@@ -12260,7 +12248,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>134</v>
@@ -12296,7 +12284,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>134</v>
@@ -12332,7 +12320,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>134</v>
@@ -12368,7 +12356,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>134</v>
@@ -12404,7 +12392,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>134</v>
@@ -12440,7 +12428,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>134</v>
@@ -12476,7 +12464,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>134</v>
@@ -12512,7 +12500,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>134</v>
@@ -12548,7 +12536,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>134</v>
@@ -12584,7 +12572,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>134</v>
@@ -12620,7 +12608,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>134</v>
@@ -12656,7 +12644,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>134</v>
@@ -12692,7 +12680,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>134</v>
@@ -12728,7 +12716,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>134</v>
@@ -12764,7 +12752,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>134</v>
@@ -12800,7 +12788,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>134</v>
@@ -12836,7 +12824,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>134</v>
@@ -12872,7 +12860,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>134</v>
@@ -12908,7 +12896,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>134</v>
@@ -12944,7 +12932,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>134</v>
@@ -12980,7 +12968,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>141</v>
@@ -12992,7 +12980,7 @@
         <v>142</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G381" t="s">
         <v>143</v>
@@ -13012,7 +13000,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>141</v>
@@ -13024,7 +13012,7 @@
         <v>142</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G382" s="1" t="s">
         <v>143</v>
@@ -13044,7 +13032,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>141</v>
@@ -13056,7 +13044,7 @@
         <v>142</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G383" s="1" t="s">
         <v>143</v>
@@ -13076,7 +13064,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>141</v>
@@ -13110,7 +13098,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>141</v>
@@ -13144,7 +13132,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>141</v>
@@ -13178,7 +13166,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>141</v>
@@ -13212,7 +13200,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>141</v>
@@ -13246,7 +13234,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>141</v>
@@ -13280,7 +13268,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>141</v>
@@ -13314,7 +13302,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>141</v>
@@ -13348,7 +13336,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>141</v>
@@ -13382,7 +13370,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>141</v>
@@ -13414,7 +13402,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>141</v>
@@ -13446,7 +13434,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>141</v>
@@ -13478,7 +13466,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>141</v>
@@ -13510,7 +13498,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>141</v>
@@ -13542,7 +13530,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>141</v>
@@ -13574,7 +13562,7 @@
     </row>
     <row r="399" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>232</v>
@@ -13597,7 +13585,7 @@
     </row>
     <row r="400" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>232</v>
@@ -13620,7 +13608,7 @@
     </row>
     <row r="401" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B401" s="4" t="s">
         <v>232</v>
@@ -13643,7 +13631,7 @@
     </row>
     <row r="402" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>232</v>
@@ -13666,7 +13654,7 @@
     </row>
     <row r="403" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B403" s="4" t="s">
         <v>232</v>
@@ -13689,7 +13677,7 @@
     </row>
     <row r="404" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>232</v>
@@ -13712,7 +13700,7 @@
     </row>
     <row r="405" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>232</v>
@@ -13735,7 +13723,7 @@
     </row>
     <row r="406" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>232</v>
@@ -13758,7 +13746,7 @@
     </row>
     <row r="407" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B407" s="4" t="s">
         <v>232</v>
@@ -13781,7 +13769,7 @@
     </row>
     <row r="408" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B408" s="4" t="s">
         <v>232</v>
@@ -13804,7 +13792,7 @@
     </row>
     <row r="409" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B409" s="4" t="s">
         <v>232</v>
@@ -13827,7 +13815,7 @@
     </row>
     <row r="410" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B410" s="4" t="s">
         <v>232</v>
@@ -13850,7 +13838,7 @@
     </row>
     <row r="411" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B411" s="4" t="s">
         <v>232</v>
@@ -13873,7 +13861,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B412" s="4" t="s">
         <v>232</v>
@@ -13896,7 +13884,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B413" s="4" t="s">
         <v>232</v>
@@ -13919,7 +13907,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>232</v>
@@ -13942,7 +13930,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B415" s="4" t="s">
         <v>232</v>
@@ -13965,7 +13953,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B416" s="4" t="s">
         <v>232</v>
@@ -13988,7 +13976,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>232</v>
@@ -14011,7 +13999,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>232</v>
@@ -14034,7 +14022,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>232</v>
@@ -14057,7 +14045,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>232</v>
@@ -14080,7 +14068,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B421" s="4" t="s">
         <v>232</v>
@@ -14103,7 +14091,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B422" s="4" t="s">
         <v>232</v>
@@ -14125,676 +14113,340 @@
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A423" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B423" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C423" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D423" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A423" s="4"/>
+      <c r="B423" s="4"/>
+      <c r="C423" s="4"/>
+      <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
-      <c r="G423" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H423" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G423" s="4"/>
+      <c r="H423" s="4"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
       <c r="K423" s="4"/>
-      <c r="L423" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="L423" s="4"/>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A424" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B424" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C424" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D424" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A424" s="4"/>
+      <c r="B424" s="4"/>
+      <c r="C424" s="4"/>
+      <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
-      <c r="G424" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H424" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G424" s="4"/>
+      <c r="H424" s="4"/>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
       <c r="K424" s="4"/>
-      <c r="L424" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="L424" s="4"/>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A425" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B425" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C425" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D425" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A425" s="4"/>
+      <c r="B425" s="4"/>
+      <c r="C425" s="4"/>
+      <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
-      <c r="G425" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H425" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G425" s="4"/>
+      <c r="H425" s="4"/>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
       <c r="K425" s="4"/>
-      <c r="L425" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="L425" s="4"/>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A426" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B426" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C426" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D426" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A426" s="4"/>
+      <c r="B426" s="4"/>
+      <c r="C426" s="4"/>
+      <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
-      <c r="G426" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H426" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G426" s="4"/>
+      <c r="H426" s="4"/>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
       <c r="K426" s="4"/>
-      <c r="L426" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="L426" s="4"/>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A427" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B427" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C427" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D427" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A427" s="4"/>
+      <c r="B427" s="4"/>
+      <c r="C427" s="4"/>
+      <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
-      <c r="G427" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H427" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G427" s="4"/>
+      <c r="H427" s="4"/>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
       <c r="K427" s="4"/>
-      <c r="L427" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="L427" s="4"/>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A428" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B428" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C428" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D428" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A428" s="4"/>
+      <c r="B428" s="4"/>
+      <c r="C428" s="4"/>
+      <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
-      <c r="G428" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H428" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G428" s="4"/>
+      <c r="H428" s="4"/>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
       <c r="K428" s="4"/>
-      <c r="L428" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="L428" s="4"/>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A429" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B429" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C429" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D429" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A429" s="4"/>
+      <c r="B429" s="4"/>
+      <c r="C429" s="4"/>
+      <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
-      <c r="G429" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H429" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G429" s="4"/>
+      <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
       <c r="K429" s="4"/>
-      <c r="L429" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="L429" s="4"/>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A430" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B430" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C430" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D430" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A430" s="4"/>
+      <c r="B430" s="4"/>
+      <c r="C430" s="4"/>
+      <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
-      <c r="G430" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H430" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G430" s="4"/>
+      <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
       <c r="K430" s="4"/>
-      <c r="L430" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="L430" s="4"/>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A431" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B431" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D431" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A431" s="4"/>
+      <c r="B431" s="4"/>
+      <c r="C431" s="4"/>
+      <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
-      <c r="G431" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H431" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G431" s="4"/>
+      <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
       <c r="K431" s="4"/>
-      <c r="L431" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="L431" s="4"/>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A432" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B432" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C432" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D432" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A432" s="4"/>
+      <c r="B432" s="4"/>
+      <c r="C432" s="4"/>
+      <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
-      <c r="G432" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H432" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G432" s="4"/>
+      <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
       <c r="K432" s="4"/>
-      <c r="L432" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="L432" s="4"/>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A433" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B433" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C433" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D433" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A433" s="4"/>
+      <c r="B433" s="4"/>
+      <c r="C433" s="4"/>
+      <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
-      <c r="G433" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H433" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G433" s="4"/>
+      <c r="H433" s="4"/>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
       <c r="K433" s="4"/>
-      <c r="L433" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="L433" s="4"/>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A434" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B434" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C434" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D434" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A434" s="4"/>
+      <c r="B434" s="4"/>
+      <c r="C434" s="4"/>
+      <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
-      <c r="G434" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H434" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G434" s="4"/>
+      <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
       <c r="K434" s="4"/>
-      <c r="L434" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="L434" s="4"/>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A435" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B435" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C435" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D435" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A435" s="4"/>
+      <c r="B435" s="4"/>
+      <c r="C435" s="4"/>
+      <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
-      <c r="G435" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H435" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G435" s="4"/>
+      <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
       <c r="K435" s="4"/>
-      <c r="L435" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="L435" s="4"/>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A436" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B436" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C436" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D436" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A436" s="4"/>
+      <c r="B436" s="4"/>
+      <c r="C436" s="4"/>
+      <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
-      <c r="G436" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H436" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G436" s="4"/>
+      <c r="H436" s="4"/>
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
       <c r="K436" s="4"/>
-      <c r="L436" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="L436" s="4"/>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A437" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B437" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C437" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D437" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A437" s="4"/>
+      <c r="B437" s="4"/>
+      <c r="C437" s="4"/>
+      <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
-      <c r="G437" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H437" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G437" s="4"/>
+      <c r="H437" s="4"/>
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
       <c r="K437" s="4"/>
-      <c r="L437" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="L437" s="4"/>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A438" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B438" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C438" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D438" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A438" s="4"/>
+      <c r="B438" s="4"/>
+      <c r="C438" s="4"/>
+      <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
-      <c r="G438" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H438" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G438" s="4"/>
+      <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
       <c r="K438" s="4"/>
-      <c r="L438" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="L438" s="4"/>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A439" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B439" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C439" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D439" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A439" s="4"/>
+      <c r="B439" s="4"/>
+      <c r="C439" s="4"/>
+      <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
-      <c r="G439" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H439" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G439" s="4"/>
+      <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
       <c r="K439" s="4"/>
-      <c r="L439" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="L439" s="4"/>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A440" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B440" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C440" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D440" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A440" s="4"/>
+      <c r="B440" s="4"/>
+      <c r="C440" s="4"/>
+      <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
-      <c r="G440" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H440" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G440" s="4"/>
+      <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
       <c r="K440" s="4"/>
-      <c r="L440" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="L440" s="4"/>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A441" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B441" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C441" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D441" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A441" s="4"/>
+      <c r="B441" s="4"/>
+      <c r="C441" s="4"/>
+      <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
-      <c r="G441" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H441" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G441" s="4"/>
+      <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
       <c r="K441" s="4"/>
-      <c r="L441" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="L441" s="4"/>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A442" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B442" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C442" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D442" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A442" s="4"/>
+      <c r="B442" s="4"/>
+      <c r="C442" s="4"/>
+      <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
-      <c r="G442" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H442" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G442" s="4"/>
+      <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
       <c r="K442" s="4"/>
-      <c r="L442" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="L442" s="4"/>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A443" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B443" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C443" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D443" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A443" s="4"/>
+      <c r="B443" s="4"/>
+      <c r="C443" s="4"/>
+      <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
-      <c r="G443" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H443" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G443" s="4"/>
+      <c r="H443" s="4"/>
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
       <c r="K443" s="4"/>
-      <c r="L443" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="L443" s="4"/>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A444" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B444" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C444" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D444" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A444" s="4"/>
+      <c r="B444" s="4"/>
+      <c r="C444" s="4"/>
+      <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
-      <c r="G444" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H444" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G444" s="4"/>
+      <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
       <c r="K444" s="4"/>
-      <c r="L444" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="L444" s="4"/>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A445" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B445" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C445" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D445" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A445" s="4"/>
+      <c r="B445" s="4"/>
+      <c r="C445" s="4"/>
+      <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
-      <c r="G445" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H445" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G445" s="4"/>
+      <c r="H445" s="4"/>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
       <c r="K445" s="4"/>
-      <c r="L445" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="L445" s="4"/>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A446" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B446" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C446" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D446" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A446" s="4"/>
+      <c r="B446" s="4"/>
+      <c r="C446" s="4"/>
+      <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
-      <c r="G446" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H446" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G446" s="4"/>
+      <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
       <c r="K446" s="4"/>
-      <c r="L446" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="L446" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/03_Outputs/Form_table.xlsx
+++ b/03_Outputs/Form_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LZ\MAX_PPT_Automation\03_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBB520-02F7-4299-BE4A-90A01E1B49A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0333130-4C63-40B2-8754-7440237FC325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="240">
   <si>
     <t>Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -857,6 +857,10 @@
   </si>
   <si>
     <t>Maylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mylan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,8 +1238,8 @@
   <dimension ref="A1:L446"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A423" sqref="A423"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2523,7 +2527,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s">
         <v>120</v>
@@ -2549,7 +2553,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B54" t="s">
         <v>121</v>
@@ -2575,7 +2579,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B55" t="s">
         <v>121</v>
@@ -2601,7 +2605,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
         <v>121</v>
@@ -2627,7 +2631,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
         <v>121</v>
@@ -2653,7 +2657,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s">
         <v>121</v>
@@ -2679,7 +2683,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s">
         <v>121</v>
@@ -2705,7 +2709,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s">
         <v>121</v>
@@ -2731,7 +2735,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B61" t="s">
         <v>121</v>
@@ -2757,7 +2761,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s">
         <v>121</v>
@@ -2783,7 +2787,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s">
         <v>121</v>
@@ -2809,7 +2813,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B64" t="s">
         <v>126</v>
@@ -2832,7 +2836,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s">
         <v>126</v>
@@ -2855,7 +2859,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s">
         <v>126</v>
@@ -2878,7 +2882,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B67" t="s">
         <v>126</v>
@@ -2901,7 +2905,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B68" t="s">
         <v>126</v>
@@ -2924,7 +2928,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B69" t="s">
         <v>126</v>
@@ -2947,7 +2951,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B70" t="s">
         <v>126</v>
@@ -2970,7 +2974,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B71" t="s">
         <v>126</v>
@@ -2993,7 +2997,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B72" t="s">
         <v>126</v>
@@ -3016,7 +3020,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B73" t="s">
         <v>126</v>
@@ -3039,7 +3043,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s">
         <v>122</v>
@@ -3068,7 +3072,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B75" t="s">
         <v>122</v>
@@ -3097,7 +3101,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B76" t="s">
         <v>122</v>
@@ -3126,7 +3130,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B77" t="s">
         <v>122</v>
@@ -3155,7 +3159,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B78" t="s">
         <v>122</v>
@@ -3184,7 +3188,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
         <v>122</v>
@@ -3213,7 +3217,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s">
         <v>122</v>
@@ -3242,7 +3246,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B81" t="s">
         <v>122</v>
@@ -3271,7 +3275,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B82" t="s">
         <v>122</v>
@@ -3300,7 +3304,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B83" t="s">
         <v>122</v>
@@ -3329,7 +3333,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B84" t="s">
         <v>122</v>
@@ -3358,7 +3362,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B85" t="s">
         <v>120</v>
@@ -3387,7 +3391,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B86" t="s">
         <v>120</v>
@@ -3416,7 +3420,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B87" t="s">
         <v>120</v>
@@ -3445,7 +3449,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B88" t="s">
         <v>120</v>
@@ -3474,7 +3478,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B89" t="s">
         <v>120</v>
@@ -3503,7 +3507,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B90" t="s">
         <v>120</v>
@@ -3532,7 +3536,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B91" t="s">
         <v>120</v>
@@ -3561,7 +3565,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B92" t="s">
         <v>120</v>
@@ -3590,7 +3594,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B93" t="s">
         <v>120</v>
@@ -3619,7 +3623,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
         <v>120</v>
@@ -3648,7 +3652,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B95" t="s">
         <v>120</v>
@@ -3677,7 +3681,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B96" t="s">
         <v>120</v>
@@ -3706,7 +3710,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B97" t="s">
         <v>120</v>
@@ -3735,7 +3739,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B98" t="s">
         <v>120</v>
@@ -3764,7 +3768,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B99" t="s">
         <v>120</v>
@@ -3793,7 +3797,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B100" t="s">
         <v>120</v>
@@ -3822,7 +3826,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B101" t="s">
         <v>120</v>
@@ -3851,7 +3855,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
         <v>120</v>
@@ -3880,7 +3884,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B103" t="s">
         <v>120</v>
@@ -3909,7 +3913,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104" t="s">
         <v>120</v>
@@ -3938,7 +3942,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B105" t="s">
         <v>120</v>
@@ -3967,7 +3971,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B106" t="s">
         <v>120</v>
@@ -3996,7 +4000,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B107" t="s">
         <v>120</v>
@@ -4025,7 +4029,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B108" t="s">
         <v>120</v>
@@ -4054,7 +4058,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B109" t="s">
         <v>120</v>
@@ -4083,7 +4087,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B110" t="s">
         <v>120</v>
@@ -4112,7 +4116,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B111" t="s">
         <v>120</v>
@@ -4141,7 +4145,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B112" t="s">
         <v>120</v>
@@ -4170,7 +4174,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B113" t="s">
         <v>121</v>
@@ -4196,7 +4200,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B114" t="s">
         <v>121</v>
@@ -4222,7 +4226,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B115" t="s">
         <v>121</v>
@@ -4248,7 +4252,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B116" t="s">
         <v>121</v>
@@ -4274,7 +4278,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B117" t="s">
         <v>121</v>
@@ -4300,7 +4304,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B118" t="s">
         <v>121</v>
@@ -4326,7 +4330,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
         <v>121</v>
@@ -4352,7 +4356,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
@@ -4378,7 +4382,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
@@ -4404,7 +4408,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B122" t="s">
         <v>121</v>
@@ -4430,7 +4434,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B123" t="s">
         <v>121</v>
@@ -4456,7 +4460,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B124" t="s">
         <v>121</v>
@@ -4482,7 +4486,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B125" t="s">
         <v>121</v>
@@ -4508,7 +4512,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B126" t="s">
         <v>121</v>
@@ -4534,7 +4538,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B127" t="s">
         <v>121</v>
@@ -4560,7 +4564,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B128" t="s">
         <v>121</v>
@@ -4586,7 +4590,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B129" t="s">
         <v>121</v>
@@ -4612,7 +4616,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B130" t="s">
         <v>121</v>
@@ -4638,7 +4642,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B131" t="s">
         <v>121</v>
@@ -4664,7 +4668,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B132" t="s">
         <v>121</v>
@@ -4690,7 +4694,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B133" t="s">
         <v>121</v>
@@ -4716,7 +4720,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B134" t="s">
         <v>121</v>
@@ -4742,7 +4746,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B135" t="s">
         <v>126</v>
@@ -4765,7 +4769,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B136" t="s">
         <v>126</v>
@@ -4788,7 +4792,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B137" t="s">
         <v>126</v>
@@ -4811,7 +4815,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B138" t="s">
         <v>126</v>
@@ -4834,7 +4838,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B139" t="s">
         <v>126</v>
@@ -4857,7 +4861,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B140" t="s">
         <v>126</v>
@@ -4880,7 +4884,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B141" t="s">
         <v>126</v>
@@ -4903,7 +4907,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B142" t="s">
         <v>126</v>
@@ -4926,7 +4930,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B143" t="s">
         <v>126</v>
@@ -4949,7 +4953,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B144" t="s">
         <v>126</v>
@@ -4972,7 +4976,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B145" t="s">
         <v>126</v>
@@ -4995,7 +4999,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B146" t="s">
         <v>126</v>
@@ -5018,7 +5022,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B147" t="s">
         <v>126</v>
@@ -5041,7 +5045,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B148" t="s">
         <v>126</v>
@@ -5064,7 +5068,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B149" t="s">
         <v>126</v>
@@ -5087,7 +5091,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B150" t="s">
         <v>126</v>
@@ -5110,7 +5114,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B151" t="s">
         <v>126</v>
@@ -5133,7 +5137,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B152" t="s">
         <v>126</v>
@@ -5156,7 +5160,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B153" t="s">
         <v>126</v>
@@ -5179,7 +5183,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B154" t="s">
         <v>126</v>
@@ -5202,7 +5206,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B155" t="s">
         <v>126</v>
@@ -5225,7 +5229,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B156" t="s">
         <v>126</v>
@@ -5248,7 +5252,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B157" t="s">
         <v>134</v>
@@ -5283,7 +5287,7 @@
     </row>
     <row r="158" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>134</v>
@@ -5318,7 +5322,7 @@
     </row>
     <row r="159" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>134</v>
@@ -5353,7 +5357,7 @@
     </row>
     <row r="160" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>134</v>
@@ -5388,7 +5392,7 @@
     </row>
     <row r="161" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>134</v>
@@ -5423,7 +5427,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>134</v>
@@ -5458,7 +5462,7 @@
     </row>
     <row r="163" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>134</v>
@@ -5493,7 +5497,7 @@
     </row>
     <row r="164" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>134</v>
@@ -5528,7 +5532,7 @@
     </row>
     <row r="165" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>134</v>
@@ -5563,7 +5567,7 @@
     </row>
     <row r="166" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>134</v>
@@ -5598,7 +5602,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>133</v>
@@ -5624,7 +5628,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>133</v>
@@ -5650,7 +5654,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>134</v>
@@ -5685,7 +5689,7 @@
     </row>
     <row r="170" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>134</v>
@@ -5720,7 +5724,7 @@
     </row>
     <row r="171" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>134</v>
@@ -5755,7 +5759,7 @@
     </row>
     <row r="172" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>134</v>
@@ -5790,7 +5794,7 @@
     </row>
     <row r="173" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>134</v>
@@ -5825,7 +5829,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>134</v>
@@ -5860,7 +5864,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>134</v>
@@ -5895,7 +5899,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>134</v>
@@ -5930,7 +5934,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>134</v>
@@ -5965,7 +5969,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>134</v>
@@ -6000,7 +6004,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>134</v>
@@ -6035,7 +6039,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>134</v>
@@ -6070,7 +6074,7 @@
     </row>
     <row r="181" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>134</v>
@@ -6105,7 +6109,7 @@
     </row>
     <row r="182" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>134</v>
@@ -6140,7 +6144,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>134</v>
@@ -6175,7 +6179,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>134</v>
@@ -6210,7 +6214,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>134</v>
@@ -6245,7 +6249,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>134</v>
@@ -6280,7 +6284,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>134</v>
@@ -6315,7 +6319,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>134</v>
@@ -6350,7 +6354,7 @@
     </row>
     <row r="189" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>134</v>
@@ -6385,7 +6389,7 @@
     </row>
     <row r="190" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>134</v>
@@ -6420,7 +6424,7 @@
     </row>
     <row r="191" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>134</v>
@@ -6455,7 +6459,7 @@
     </row>
     <row r="192" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>134</v>
@@ -6490,7 +6494,7 @@
     </row>
     <row r="193" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>134</v>
@@ -6525,7 +6529,7 @@
     </row>
     <row r="194" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>134</v>
@@ -6560,7 +6564,7 @@
     </row>
     <row r="195" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>134</v>
@@ -6595,7 +6599,7 @@
     </row>
     <row r="196" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>134</v>
@@ -6630,7 +6634,7 @@
     </row>
     <row r="197" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>134</v>
@@ -6665,7 +6669,7 @@
     </row>
     <row r="198" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>134</v>
@@ -6700,7 +6704,7 @@
     </row>
     <row r="199" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>134</v>
@@ -6735,7 +6739,7 @@
     </row>
     <row r="200" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B200" t="s">
         <v>134</v>
@@ -6771,7 +6775,7 @@
     </row>
     <row r="201" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>134</v>
@@ -6806,7 +6810,7 @@
     </row>
     <row r="202" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>134</v>
@@ -6841,7 +6845,7 @@
     </row>
     <row r="203" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>134</v>
@@ -6876,7 +6880,7 @@
     </row>
     <row r="204" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>134</v>
@@ -6911,7 +6915,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>134</v>
@@ -6946,7 +6950,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>134</v>
@@ -6981,7 +6985,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>134</v>
@@ -7016,7 +7020,7 @@
     </row>
     <row r="208" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>134</v>
@@ -7051,7 +7055,7 @@
     </row>
     <row r="209" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>134</v>
@@ -7086,7 +7090,7 @@
     </row>
     <row r="210" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>134</v>
@@ -7121,7 +7125,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>134</v>
@@ -7156,7 +7160,7 @@
     </row>
     <row r="212" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>134</v>
@@ -7191,7 +7195,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>134</v>
@@ -7226,7 +7230,7 @@
     </row>
     <row r="214" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>134</v>
@@ -7261,7 +7265,7 @@
     </row>
     <row r="215" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>134</v>
@@ -7296,7 +7300,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>134</v>
@@ -7331,7 +7335,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>134</v>
@@ -7366,7 +7370,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>134</v>
@@ -7401,7 +7405,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>134</v>
@@ -7436,7 +7440,7 @@
     </row>
     <row r="220" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>134</v>
@@ -7471,7 +7475,7 @@
     </row>
     <row r="221" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>134</v>
@@ -7506,7 +7510,7 @@
     </row>
     <row r="222" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>134</v>
@@ -7541,7 +7545,7 @@
     </row>
     <row r="223" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>134</v>
@@ -7576,7 +7580,7 @@
     </row>
     <row r="224" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>134</v>
@@ -7611,7 +7615,7 @@
     </row>
     <row r="225" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>134</v>
@@ -7646,7 +7650,7 @@
     </row>
     <row r="226" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>134</v>
@@ -7681,7 +7685,7 @@
     </row>
     <row r="227" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>134</v>
@@ -7716,7 +7720,7 @@
     </row>
     <row r="228" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>134</v>
@@ -7751,7 +7755,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>134</v>
@@ -7786,7 +7790,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>134</v>
@@ -7821,7 +7825,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>141</v>
@@ -7851,7 +7855,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>141</v>
@@ -7881,7 +7885,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>141</v>
@@ -7911,7 +7915,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>141</v>
@@ -7941,7 +7945,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>141</v>
@@ -7971,7 +7975,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>141</v>
@@ -8001,7 +8005,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>123</v>
@@ -8031,7 +8035,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>123</v>
@@ -8061,7 +8065,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>123</v>
@@ -8087,7 +8091,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>123</v>
@@ -8113,7 +8117,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>123</v>
@@ -8139,7 +8143,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>124</v>
@@ -8167,7 +8171,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>124</v>
@@ -8195,7 +8199,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>124</v>
@@ -8223,7 +8227,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>124</v>
@@ -8246,7 +8250,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>124</v>
@@ -8269,7 +8273,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>124</v>
@@ -8292,7 +8296,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>123</v>
@@ -8322,7 +8326,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>123</v>
@@ -8352,7 +8356,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>123</v>
@@ -8382,7 +8386,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>123</v>
@@ -8412,7 +8416,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>123</v>
@@ -8442,7 +8446,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>124</v>
@@ -8470,7 +8474,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>124</v>
@@ -8498,7 +8502,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>124</v>
@@ -8526,7 +8530,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>124</v>
@@ -8554,7 +8558,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>124</v>
@@ -8582,7 +8586,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>124</v>
@@ -8610,7 +8614,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>134</v>
@@ -8646,7 +8650,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>134</v>
@@ -8681,7 +8685,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>134</v>
@@ -8716,7 +8720,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>134</v>
@@ -8751,7 +8755,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>134</v>
@@ -8786,7 +8790,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>134</v>
@@ -8822,7 +8826,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>134</v>
@@ -8858,7 +8862,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>134</v>
@@ -8894,7 +8898,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>134</v>
@@ -8930,7 +8934,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>134</v>
@@ -8966,7 +8970,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>141</v>
@@ -8996,7 +9000,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>141</v>
@@ -9026,7 +9030,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>141</v>
@@ -9056,7 +9060,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>141</v>
@@ -9088,7 +9092,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>141</v>
@@ -9120,7 +9124,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>141</v>
@@ -9152,7 +9156,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>134</v>
@@ -9188,7 +9192,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>134</v>
@@ -9224,7 +9228,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>134</v>
@@ -9260,7 +9264,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>134</v>
@@ -9296,7 +9300,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>134</v>
@@ -9332,7 +9336,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>134</v>
@@ -9368,7 +9372,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>134</v>
@@ -9404,7 +9408,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>134</v>
@@ -9440,7 +9444,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>134</v>
@@ -9476,7 +9480,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>134</v>
@@ -9512,7 +9516,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>134</v>
@@ -9548,7 +9552,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>134</v>
@@ -9584,7 +9588,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>134</v>
@@ -9620,7 +9624,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>134</v>
@@ -9656,7 +9660,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>134</v>
@@ -9692,7 +9696,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>134</v>
@@ -9728,7 +9732,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>134</v>
@@ -9764,7 +9768,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>134</v>
@@ -9800,7 +9804,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>134</v>
@@ -9836,7 +9840,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>134</v>
@@ -9872,7 +9876,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>134</v>
@@ -9908,7 +9912,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>134</v>
@@ -9944,7 +9948,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>134</v>
@@ -9980,7 +9984,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>134</v>
@@ -10016,7 +10020,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>134</v>
@@ -10052,7 +10056,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>134</v>
@@ -10088,7 +10092,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>134</v>
@@ -10124,7 +10128,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>134</v>
@@ -10160,7 +10164,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>134</v>
@@ -10196,7 +10200,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>134</v>
@@ -10232,7 +10236,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>134</v>
@@ -10268,7 +10272,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>134</v>
@@ -10304,7 +10308,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>134</v>
@@ -10340,7 +10344,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>134</v>
@@ -10376,7 +10380,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>134</v>
@@ -10412,7 +10416,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>134</v>
@@ -10448,7 +10452,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>134</v>
@@ -10484,7 +10488,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>134</v>
@@ -10520,7 +10524,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>134</v>
@@ -10556,7 +10560,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>134</v>
@@ -10592,7 +10596,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>134</v>
@@ -10628,7 +10632,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>134</v>
@@ -10664,7 +10668,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>134</v>
@@ -10700,7 +10704,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>134</v>
@@ -10736,7 +10740,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>134</v>
@@ -10772,7 +10776,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>134</v>
@@ -10808,7 +10812,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>134</v>
@@ -10844,7 +10848,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>134</v>
@@ -10880,7 +10884,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>134</v>
@@ -10916,7 +10920,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>134</v>
@@ -10952,7 +10956,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>134</v>
@@ -10988,7 +10992,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>134</v>
@@ -11024,7 +11028,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>134</v>
@@ -11060,7 +11064,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>134</v>
@@ -11096,7 +11100,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>134</v>
@@ -11132,7 +11136,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>134</v>
@@ -11168,7 +11172,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>134</v>
@@ -11204,7 +11208,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>134</v>
@@ -11240,7 +11244,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>134</v>
@@ -11276,7 +11280,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>134</v>
@@ -11312,7 +11316,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>134</v>
@@ -11348,7 +11352,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>134</v>
@@ -11384,7 +11388,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>134</v>
@@ -11420,7 +11424,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>134</v>
@@ -11456,7 +11460,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>134</v>
@@ -11492,7 +11496,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>134</v>
@@ -11528,7 +11532,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>134</v>
@@ -11564,7 +11568,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>134</v>
@@ -11600,7 +11604,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>134</v>
@@ -11636,7 +11640,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>134</v>
@@ -11672,7 +11676,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>134</v>
@@ -11708,7 +11712,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>134</v>
@@ -11744,7 +11748,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>134</v>
@@ -11780,7 +11784,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>134</v>
@@ -11816,7 +11820,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>134</v>
@@ -11852,7 +11856,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>134</v>
@@ -11888,7 +11892,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>134</v>
@@ -11924,7 +11928,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>134</v>
@@ -11960,7 +11964,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>134</v>
@@ -11996,7 +12000,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B354" s="4" t="s">
         <v>134</v>
@@ -12032,7 +12036,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>134</v>
@@ -12068,7 +12072,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>134</v>
@@ -12104,7 +12108,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>134</v>
@@ -12140,7 +12144,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>134</v>
@@ -12176,7 +12180,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>134</v>
@@ -12212,7 +12216,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>134</v>
@@ -12248,7 +12252,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>134</v>
@@ -12284,7 +12288,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>134</v>
@@ -12320,7 +12324,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>134</v>
@@ -12356,7 +12360,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>134</v>
@@ -12392,7 +12396,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>134</v>
@@ -12428,7 +12432,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>134</v>
@@ -12464,7 +12468,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>134</v>
@@ -12500,7 +12504,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>134</v>
@@ -12536,7 +12540,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>134</v>
@@ -12572,7 +12576,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>134</v>
@@ -12608,7 +12612,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>134</v>
@@ -12644,7 +12648,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>134</v>
@@ -12680,7 +12684,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>134</v>
@@ -12716,7 +12720,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>134</v>
@@ -12752,7 +12756,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>134</v>
@@ -12788,7 +12792,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>134</v>
@@ -12824,7 +12828,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>134</v>
@@ -12860,7 +12864,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>134</v>
@@ -12896,7 +12900,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>134</v>
@@ -12932,7 +12936,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>134</v>
@@ -12968,7 +12972,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>141</v>
@@ -13000,7 +13004,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>141</v>
@@ -13032,7 +13036,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>141</v>
@@ -13064,7 +13068,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>141</v>
@@ -13098,7 +13102,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>141</v>
@@ -13132,7 +13136,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>141</v>
@@ -13166,7 +13170,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>141</v>
@@ -13200,7 +13204,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>141</v>
@@ -13234,7 +13238,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>141</v>
@@ -13268,7 +13272,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>141</v>
@@ -13302,7 +13306,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>141</v>
@@ -13336,7 +13340,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>141</v>
@@ -13370,7 +13374,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>141</v>
@@ -13402,7 +13406,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>141</v>
@@ -13434,7 +13438,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>141</v>
@@ -13466,7 +13470,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>141</v>
@@ -13498,7 +13502,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>141</v>
@@ -13530,7 +13534,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>141</v>
@@ -13562,7 +13566,7 @@
     </row>
     <row r="399" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>232</v>
@@ -13585,7 +13589,7 @@
     </row>
     <row r="400" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>232</v>
@@ -13608,7 +13612,7 @@
     </row>
     <row r="401" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B401" s="4" t="s">
         <v>232</v>
@@ -13631,7 +13635,7 @@
     </row>
     <row r="402" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>232</v>
@@ -13654,7 +13658,7 @@
     </row>
     <row r="403" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B403" s="4" t="s">
         <v>232</v>
@@ -13677,7 +13681,7 @@
     </row>
     <row r="404" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>232</v>
@@ -13700,7 +13704,7 @@
     </row>
     <row r="405" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>232</v>
@@ -13723,7 +13727,7 @@
     </row>
     <row r="406" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>232</v>
@@ -13746,7 +13750,7 @@
     </row>
     <row r="407" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B407" s="4" t="s">
         <v>232</v>
@@ -13769,7 +13773,7 @@
     </row>
     <row r="408" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B408" s="4" t="s">
         <v>232</v>
@@ -13792,7 +13796,7 @@
     </row>
     <row r="409" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B409" s="4" t="s">
         <v>232</v>
@@ -13815,7 +13819,7 @@
     </row>
     <row r="410" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B410" s="4" t="s">
         <v>232</v>
@@ -13838,7 +13842,7 @@
     </row>
     <row r="411" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B411" s="4" t="s">
         <v>232</v>
@@ -13861,7 +13865,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B412" s="4" t="s">
         <v>232</v>
@@ -13884,7 +13888,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B413" s="4" t="s">
         <v>232</v>
@@ -13907,7 +13911,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>232</v>
@@ -13930,7 +13934,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B415" s="4" t="s">
         <v>232</v>
@@ -13953,7 +13957,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B416" s="4" t="s">
         <v>232</v>
@@ -13976,7 +13980,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>232</v>
@@ -13999,7 +14003,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>232</v>
@@ -14022,7 +14026,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>232</v>
@@ -14045,7 +14049,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>232</v>
@@ -14068,7 +14072,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B421" s="4" t="s">
         <v>232</v>
@@ -14091,7 +14095,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B422" s="4" t="s">
         <v>232</v>
